--- a/EC/Train Runs and Enforcements 2016-05-25.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-25.xlsx
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R158" sqref="R158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3088,7 @@
         <v>3.1805555554456078E-2</v>
       </c>
       <c r="N4" s="13">
-        <f t="shared" ref="N4:P94" si="3">24*60*SUM($M4:$M4)</f>
+        <f t="shared" ref="N4:N12" si="3">24*60*SUM($M4:$M4)</f>
         <v>45.799999998416752</v>
       </c>
       <c r="O4" s="13"/>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="60" t="str">
-        <f t="shared" ref="K5:K68" si="4">IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
+        <f t="shared" ref="K5:K12" si="4">IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
         <v>4039/4040</v>
       </c>
       <c r="L5" s="60" t="str">
@@ -3168,7 +3168,7 @@
         <v>YANAI</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" ref="M5:M68" si="5">I5-F5</f>
+        <f t="shared" ref="M5:M12" si="5">I5-F5</f>
         <v>2.6921296295768116E-2</v>
       </c>
       <c r="N5" s="13">
@@ -3180,27 +3180,27 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="T5" s="73" t="str">
-        <f t="shared" ref="T5:T68" si="6">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T5:T12" si="6">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 03:39:32-0600',mode:absolute,to:'2016-05-25 04:22:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U5" s="73" t="str">
-        <f t="shared" ref="U5:U68" si="7">IF(Y5&lt;23,"Y","N")</f>
+        <f t="shared" ref="U5:U12" si="7">IF(Y5&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V5" s="73">
-        <f t="shared" ref="V5:V68" si="8">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
+        <f t="shared" ref="V5:V12" si="8">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
         <v>1</v>
       </c>
       <c r="W5" s="73">
-        <f t="shared" ref="W5:W68" si="9">RIGHT(D5,LEN(D5)-4)/10000</f>
+        <f t="shared" ref="W5:W12" si="9">RIGHT(D5,LEN(D5)-4)/10000</f>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="X5" s="73">
-        <f t="shared" ref="X5:X68" si="10">RIGHT(H5,LEN(H5)-4)/10000</f>
+        <f t="shared" ref="X5:X12" si="10">RIGHT(H5,LEN(H5)-4)/10000</f>
         <v>23.331199999999999</v>
       </c>
       <c r="Y5" s="73">
-        <f t="shared" ref="Y5:Y68" si="11">ABS(X5-W5)</f>
+        <f t="shared" ref="Y5:Y12" si="11">ABS(X5-W5)</f>
         <v>23.265699999999999</v>
       </c>
       <c r="Z5" s="74" t="e">
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="60" t="str">
-        <f>IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
+        <f t="shared" ref="K13:K44" si="12">IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L13" s="60" t="str">
@@ -3840,7 +3840,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M13" s="12">
-        <f>I13-F13</f>
+        <f t="shared" ref="M13:M44" si="13">I13-F13</f>
         <v>2.269675926072523E-2</v>
       </c>
       <c r="N13" s="13"/>
@@ -3856,27 +3856,27 @@
         <v>596</v>
       </c>
       <c r="T13" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T13:T44" si="14">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 05:04:07-0600',mode:absolute,to:'2016-05-25 05:40:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U13" s="73" t="str">
-        <f>IF(Y13&lt;23,"Y","N")</f>
+        <f t="shared" ref="U13:U44" si="15">IF(Y13&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V13" s="73">
-        <f>VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
+        <f t="shared" ref="V13:V44" si="16">VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
         <v>1</v>
       </c>
       <c r="W13" s="73">
-        <f>RIGHT(D13,LEN(D13)-4)/10000</f>
+        <f t="shared" ref="W13:W44" si="17">RIGHT(D13,LEN(D13)-4)/10000</f>
         <v>1.9140999999999999</v>
       </c>
       <c r="X13" s="73">
-        <f>RIGHT(H13,LEN(H13)-4)/10000</f>
+        <f t="shared" ref="X13:X44" si="18">RIGHT(H13,LEN(H13)-4)/10000</f>
         <v>23.3309</v>
       </c>
       <c r="Y13" s="73">
-        <f>ABS(X13-W13)</f>
+        <f t="shared" ref="Y13:Y44" si="19">ABS(X13-W13)</f>
         <v>21.416799999999999</v>
       </c>
       <c r="Z13" s="74">
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="60" t="str">
-        <f>IF(ISEVEN(B14),(B14-1)&amp;"/"&amp;B14,B14&amp;"/"&amp;(B14+1))</f>
+        <f t="shared" si="12"/>
         <v>4007/4008</v>
       </c>
       <c r="L14" s="60" t="str">
@@ -3928,7 +3928,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M14" s="12">
-        <f>I14-F14</f>
+        <f t="shared" si="13"/>
         <v>2.4305555416503921E-4</v>
       </c>
       <c r="N14" s="13"/>
@@ -3937,27 +3937,27 @@
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
       <c r="T14" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E14-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I14+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B14&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 04:53:34-0600',mode:absolute,to:'2016-05-25 04:57:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="73" t="str">
-        <f>IF(Y14&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
       <c r="V14" s="73">
-        <f>VALUE(LEFT(A14,3))-VALUE(LEFT(A13,3))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W14" s="73">
-        <f>RIGHT(D14,LEN(D14)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>7.5200000000000003E-2</v>
       </c>
       <c r="X14" s="73">
-        <f>RIGHT(H14,LEN(H14)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>7.4800000000000005E-2</v>
       </c>
       <c r="Y14" s="73">
-        <f>ABS(X14-W14)</f>
+        <f t="shared" si="19"/>
         <v>3.9999999999999758E-4</v>
       </c>
       <c r="Z14" s="74">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="60" t="str">
-        <f>IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
+        <f t="shared" si="12"/>
         <v>4007/4008</v>
       </c>
       <c r="L15" s="60" t="str">
@@ -4009,11 +4009,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M15" s="12">
-        <f>I15-F15</f>
+        <f t="shared" si="13"/>
         <v>2.6064814817800652E-2</v>
       </c>
       <c r="N15" s="13">
-        <f>24*60*SUM($M15:$M15)</f>
+        <f t="shared" ref="N15:N31" si="20">24*60*SUM($M15:$M15)</f>
         <v>37.533333337632939</v>
       </c>
       <c r="O15" s="13"/>
@@ -4021,27 +4021,27 @@
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
       <c r="T15" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 05:52:08-0600',mode:absolute,to:'2016-05-25 06:33:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U15" s="73" t="str">
-        <f>IF(Y15&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V15" s="73">
-        <f>VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W15" s="73">
-        <f>RIGHT(D15,LEN(D15)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.2973</v>
       </c>
       <c r="X15" s="73">
-        <f>RIGHT(H15,LEN(H15)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y15" s="73">
-        <f>ABS(X15-W15)</f>
+        <f t="shared" si="19"/>
         <v>23.2835</v>
       </c>
       <c r="Z15" s="74" t="e">
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="60" t="str">
-        <f>IF(ISEVEN(B16),(B16-1)&amp;"/"&amp;B16,B16&amp;"/"&amp;(B16+1))</f>
+        <f t="shared" si="12"/>
         <v>4019/4020</v>
       </c>
       <c r="L16" s="60" t="str">
@@ -4093,11 +4093,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M16" s="12">
-        <f>I16-F16</f>
+        <f t="shared" si="13"/>
         <v>3.6956018520868383E-2</v>
       </c>
       <c r="N16" s="13">
-        <f>24*60*SUM($M16:$M16)</f>
+        <f t="shared" si="20"/>
         <v>53.216666670050472</v>
       </c>
       <c r="O16" s="13"/>
@@ -4105,27 +4105,27 @@
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
       <c r="T16" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E16-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I16+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B16&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 04:52:39-0600',mode:absolute,to:'2016-05-25 05:53:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U16" s="73" t="str">
-        <f>IF(Y16&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V16" s="73">
-        <f>VALUE(LEFT(A16,3))-VALUE(LEFT(A15,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W16" s="73">
-        <f>RIGHT(D16,LEN(D16)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X16" s="73">
-        <f>RIGHT(H16,LEN(H16)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.3338</v>
       </c>
       <c r="Y16" s="73">
-        <f>ABS(X16-W16)</f>
+        <f t="shared" si="19"/>
         <v>23.287600000000001</v>
       </c>
       <c r="Z16" s="74" t="e">
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="60" t="str">
-        <f>IF(ISEVEN(B17),(B17-1)&amp;"/"&amp;B17,B17&amp;"/"&amp;(B17+1))</f>
+        <f t="shared" si="12"/>
         <v>4019/4020</v>
       </c>
       <c r="L17" s="60" t="str">
@@ -4177,11 +4177,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M17" s="12">
-        <f>I17-F17</f>
+        <f t="shared" si="13"/>
         <v>2.9236111106001772E-2</v>
       </c>
       <c r="N17" s="13">
-        <f>24*60*SUM($M17:$M17)</f>
+        <f t="shared" si="20"/>
         <v>42.099999992642552</v>
       </c>
       <c r="O17" s="13"/>
@@ -4189,27 +4189,27 @@
       <c r="Q17" s="61"/>
       <c r="R17" s="61"/>
       <c r="T17" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E17-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I17+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B17&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:04:23-0600',mode:absolute,to:'2016-05-25 06:49:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U17" s="73" t="str">
-        <f>IF(Y17&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V17" s="73">
-        <f>VALUE(LEFT(A17,3))-VALUE(LEFT(A16,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W17" s="73">
-        <f>RIGHT(D17,LEN(D17)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X17" s="73">
-        <f>RIGHT(H17,LEN(H17)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y17" s="73">
-        <f>ABS(X17-W17)</f>
+        <f t="shared" si="19"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z17" s="74">
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="60" t="str">
-        <f>IF(ISEVEN(B18),(B18-1)&amp;"/"&amp;B18,B18&amp;"/"&amp;(B18+1))</f>
+        <f t="shared" si="12"/>
         <v>4039/4040</v>
       </c>
       <c r="L18" s="60" t="str">
@@ -4261,11 +4261,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M18" s="12">
-        <f>I18-F18</f>
+        <f t="shared" si="13"/>
         <v>2.6550925926130731E-2</v>
       </c>
       <c r="N18" s="13">
-        <f>24*60*SUM($M18:$M18)</f>
+        <f t="shared" si="20"/>
         <v>38.233333333628252</v>
       </c>
       <c r="O18" s="13"/>
@@ -4273,27 +4273,27 @@
       <c r="Q18" s="61"/>
       <c r="R18" s="61"/>
       <c r="T18" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E18-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I18+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B18&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 05:24:14-0600',mode:absolute,to:'2016-05-25 06:06:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U18" s="73" t="str">
-        <f>IF(Y18&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V18" s="73">
-        <f>VALUE(LEFT(A18,3))-VALUE(LEFT(A17,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W18" s="73">
-        <f>RIGHT(D18,LEN(D18)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="X18" s="73">
-        <f>RIGHT(H18,LEN(H18)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y18" s="73">
-        <f>ABS(X18-W18)</f>
+        <f t="shared" si="19"/>
         <v>23.252399999999998</v>
       </c>
       <c r="Z18" s="74" t="e">
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="60" t="str">
-        <f>IF(ISEVEN(B19),(B19-1)&amp;"/"&amp;B19,B19&amp;"/"&amp;(B19+1))</f>
+        <f t="shared" si="12"/>
         <v>4039/4040</v>
       </c>
       <c r="L19" s="60" t="str">
@@ -4345,11 +4345,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M19" s="12">
-        <f>I19-F19</f>
+        <f t="shared" si="13"/>
         <v>3.6631944443797693E-2</v>
       </c>
       <c r="N19" s="13">
-        <f>24*60*SUM($M19:$M19)</f>
+        <f t="shared" si="20"/>
         <v>52.749999999068677</v>
       </c>
       <c r="O19" s="13"/>
@@ -4357,27 +4357,27 @@
       <c r="Q19" s="61"/>
       <c r="R19" s="61"/>
       <c r="T19" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E19-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I19+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B19&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:07:52-0600',mode:absolute,to:'2016-05-25 07:03:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U19" s="73" t="str">
-        <f>IF(Y19&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V19" s="73">
-        <f>VALUE(LEFT(A19,3))-VALUE(LEFT(A18,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W19" s="73">
-        <f>RIGHT(D19,LEN(D19)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.2986</v>
       </c>
       <c r="X19" s="73">
-        <f>RIGHT(H19,LEN(H19)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y19" s="73">
-        <f>ABS(X19-W19)</f>
+        <f t="shared" si="19"/>
         <v>23.282800000000002</v>
       </c>
       <c r="Z19" s="74" t="e">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="60" t="str">
-        <f>IF(ISEVEN(B20),(B20-1)&amp;"/"&amp;B20,B20&amp;"/"&amp;(B20+1))</f>
+        <f t="shared" si="12"/>
         <v>4037/4038</v>
       </c>
       <c r="L20" s="60" t="str">
@@ -4429,11 +4429,11 @@
         <v>YANAI</v>
       </c>
       <c r="M20" s="12">
-        <f>I20-F20</f>
+        <f t="shared" si="13"/>
         <v>2.9710648152104113E-2</v>
       </c>
       <c r="N20" s="13">
-        <f>24*60*SUM($M20:$M20)</f>
+        <f t="shared" si="20"/>
         <v>42.783333339029923</v>
       </c>
       <c r="O20" s="13"/>
@@ -4441,27 +4441,27 @@
       <c r="Q20" s="61"/>
       <c r="R20" s="61"/>
       <c r="T20" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E20-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I20+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B20&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 05:35:36-0600',mode:absolute,to:'2016-05-25 06:21:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U20" s="73" t="str">
-        <f>IF(Y20&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V20" s="73">
-        <f>VALUE(LEFT(A20,3))-VALUE(LEFT(A19,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W20" s="73">
-        <f>RIGHT(D20,LEN(D20)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X20" s="73">
-        <f>RIGHT(H20,LEN(H20)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.3325</v>
       </c>
       <c r="Y20" s="73">
-        <f>ABS(X20-W20)</f>
+        <f t="shared" si="19"/>
         <v>23.286999999999999</v>
       </c>
       <c r="Z20" s="74" t="e">
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="60" t="str">
-        <f>IF(ISEVEN(B21),(B21-1)&amp;"/"&amp;B21,B21&amp;"/"&amp;(B21+1))</f>
+        <f t="shared" si="12"/>
         <v>4037/4038</v>
       </c>
       <c r="L21" s="60" t="str">
@@ -4513,11 +4513,11 @@
         <v>YANAI</v>
       </c>
       <c r="M21" s="12">
-        <f>I21-F21</f>
+        <f t="shared" si="13"/>
         <v>2.6712962957390118E-2</v>
       </c>
       <c r="N21" s="13">
-        <f>24*60*SUM($M21:$M21)</f>
+        <f t="shared" si="20"/>
         <v>38.46666665864177</v>
       </c>
       <c r="O21" s="13"/>
@@ -4525,27 +4525,27 @@
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
       <c r="T21" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E21-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I21+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B21&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:36:44-0600',mode:absolute,to:'2016-05-25 07:18:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U21" s="73" t="str">
-        <f>IF(Y21&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V21" s="73">
-        <f>VALUE(LEFT(A21,3))-VALUE(LEFT(A20,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W21" s="73">
-        <f>RIGHT(D21,LEN(D21)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X21" s="73">
-        <f>RIGHT(H21,LEN(H21)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y21" s="73">
-        <f>ABS(X21-W21)</f>
+        <f t="shared" si="19"/>
         <v>23.285499999999999</v>
       </c>
       <c r="Z21" s="74" t="e">
@@ -4589,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="60" t="str">
-        <f>IF(ISEVEN(B22),(B22-1)&amp;"/"&amp;B22,B22&amp;"/"&amp;(B22+1))</f>
+        <f t="shared" si="12"/>
         <v>4029/4030</v>
       </c>
       <c r="L22" s="60" t="str">
@@ -4597,11 +4597,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M22" s="12">
-        <f>I22-F22</f>
+        <f t="shared" si="13"/>
         <v>2.5972222225391306E-2</v>
       </c>
       <c r="N22" s="13">
-        <f>24*60*SUM($M22:$M22)</f>
+        <f t="shared" si="20"/>
         <v>37.400000004563481</v>
       </c>
       <c r="O22" s="13"/>
@@ -4609,27 +4609,27 @@
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>
       <c r="T22" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E22-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I22+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B22&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 05:56:04-0600',mode:absolute,to:'2016-05-25 06:36:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U22" s="73" t="str">
-        <f>IF(Y22&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V22" s="73">
-        <f>VALUE(LEFT(A22,3))-VALUE(LEFT(A21,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W22" s="73">
-        <f>RIGHT(D22,LEN(D22)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="X22" s="73">
-        <f>RIGHT(H22,LEN(H22)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.3293</v>
       </c>
       <c r="Y22" s="73">
-        <f>ABS(X22-W22)</f>
+        <f t="shared" si="19"/>
         <v>23.253799999999998</v>
       </c>
       <c r="Z22" s="74">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="60" t="str">
-        <f>IF(ISEVEN(B23),(B23-1)&amp;"/"&amp;B23,B23&amp;"/"&amp;(B23+1))</f>
+        <f t="shared" si="12"/>
         <v>4029/4030</v>
       </c>
       <c r="L23" s="60" t="str">
@@ -4681,11 +4681,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M23" s="12">
-        <f>I23-F23</f>
+        <f t="shared" si="13"/>
         <v>2.8506944443506654E-2</v>
       </c>
       <c r="N23" s="13">
-        <f>24*60*SUM($M23:$M23)</f>
+        <f t="shared" si="20"/>
         <v>41.049999998649582</v>
       </c>
       <c r="O23" s="13"/>
@@ -4693,27 +4693,27 @@
       <c r="Q23" s="61"/>
       <c r="R23" s="61"/>
       <c r="T23" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E23-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I23+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B23&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:49:43-0600',mode:absolute,to:'2016-05-25 07:34:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U23" s="73" t="str">
-        <f>IF(Y23&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V23" s="73">
-        <f>VALUE(LEFT(A23,3))-VALUE(LEFT(A22,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W23" s="73">
-        <f>RIGHT(D23,LEN(D23)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299199999999999</v>
       </c>
       <c r="X23" s="73">
-        <f>RIGHT(H23,LEN(H23)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.21E-2</v>
       </c>
       <c r="Y23" s="73">
-        <f>ABS(X23-W23)</f>
+        <f t="shared" si="19"/>
         <v>23.287099999999999</v>
       </c>
       <c r="Z23" s="74" t="e">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="60" t="str">
-        <f>IF(ISEVEN(B24),(B24-1)&amp;"/"&amp;B24,B24&amp;"/"&amp;(B24+1))</f>
+        <f t="shared" si="12"/>
         <v>4031/4032</v>
       </c>
       <c r="L24" s="60" t="str">
@@ -4765,11 +4765,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M24" s="12">
-        <f>I24-F24</f>
+        <f t="shared" si="13"/>
         <v>2.7916666665987577E-2</v>
       </c>
       <c r="N24" s="13">
-        <f>24*60*SUM($M24:$M24)</f>
+        <f t="shared" si="20"/>
         <v>40.199999999022111</v>
       </c>
       <c r="O24" s="13"/>
@@ -4777,27 +4777,27 @@
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
       <c r="T24" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E24-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I24+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B24&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:08:22-0600',mode:absolute,to:'2016-05-25 06:51:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U24" s="73" t="str">
-        <f>IF(Y24&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V24" s="73">
-        <f>VALUE(LEFT(A24,3))-VALUE(LEFT(A23,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W24" s="73">
-        <f>RIGHT(D24,LEN(D24)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X24" s="73">
-        <f>RIGHT(H24,LEN(H24)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.3308</v>
       </c>
       <c r="Y24" s="73">
-        <f>ABS(X24-W24)</f>
+        <f t="shared" si="19"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z24" s="74" t="e">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="60" t="str">
-        <f>IF(ISEVEN(B25),(B25-1)&amp;"/"&amp;B25,B25&amp;"/"&amp;(B25+1))</f>
+        <f t="shared" si="12"/>
         <v>4031/4032</v>
       </c>
       <c r="L25" s="60" t="str">
@@ -4849,11 +4849,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M25" s="12">
-        <f>I25-F25</f>
+        <f t="shared" si="13"/>
         <v>3.1562500000291038E-2</v>
       </c>
       <c r="N25" s="13">
-        <f>24*60*SUM($M25:$M25)</f>
+        <f t="shared" si="20"/>
         <v>45.450000000419095</v>
       </c>
       <c r="O25" s="13"/>
@@ -4861,27 +4861,27 @@
       <c r="Q25" s="61"/>
       <c r="R25" s="61"/>
       <c r="T25" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E25-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I25+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B25&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:00:12-0600',mode:absolute,to:'2016-05-25 07:48:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U25" s="73" t="str">
-        <f>IF(Y25&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V25" s="73">
-        <f>VALUE(LEFT(A25,3))-VALUE(LEFT(A24,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W25" s="73">
-        <f>RIGHT(D25,LEN(D25)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X25" s="73">
-        <f>RIGHT(H25,LEN(H25)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y25" s="73">
-        <f>ABS(X25-W25)</f>
+        <f t="shared" si="19"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z25" s="74" t="e">
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="60" t="str">
-        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
+        <f t="shared" si="12"/>
         <v>4009/4010</v>
       </c>
       <c r="L26" s="60" t="str">
@@ -4933,11 +4933,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M26" s="12">
-        <f>I26-F26</f>
+        <f t="shared" si="13"/>
         <v>2.7083333334303461E-2</v>
       </c>
       <c r="N26" s="13">
-        <f>24*60*SUM($M26:$M26)</f>
+        <f t="shared" si="20"/>
         <v>39.000000001396984</v>
       </c>
       <c r="O26" s="13"/>
@@ -4945,27 +4945,27 @@
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="T26" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:24:04-0600',mode:absolute,to:'2016-05-25 07:06:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="73" t="str">
-        <f>IF(Y26&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V26" s="73">
-        <f>VALUE(LEFT(A26,3))-VALUE(LEFT(A25,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W26" s="73">
-        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X26" s="73">
-        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y26" s="73">
-        <f>ABS(X26-W26)</f>
+        <f t="shared" si="19"/>
         <v>23.281700000000001</v>
       </c>
       <c r="Z26" s="74" t="e">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="60" t="str">
-        <f>IF(ISEVEN(B27),(B27-1)&amp;"/"&amp;B27,B27&amp;"/"&amp;(B27+1))</f>
+        <f t="shared" si="12"/>
         <v>4009/4010</v>
       </c>
       <c r="L27" s="60" t="str">
@@ -5017,11 +5017,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M27" s="12">
-        <f>I27-F27</f>
+        <f t="shared" si="13"/>
         <v>3.1284722223063E-2</v>
       </c>
       <c r="N27" s="13">
-        <f>24*60*SUM($M27:$M27)</f>
+        <f t="shared" si="20"/>
         <v>45.050000001210719</v>
       </c>
       <c r="O27" s="13"/>
@@ -5029,27 +5029,27 @@
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
       <c r="T27" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E27-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I27+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B27&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:17:08-0600',mode:absolute,to:'2016-05-25 08:05:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U27" s="73" t="str">
-        <f>IF(Y27&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V27" s="73">
-        <f>VALUE(LEFT(A27,3))-VALUE(LEFT(A26,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W27" s="73">
-        <f>RIGHT(D27,LEN(D27)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.2971</v>
       </c>
       <c r="X27" s="73">
-        <f>RIGHT(H27,LEN(H27)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y27" s="73">
-        <f>ABS(X27-W27)</f>
+        <f t="shared" si="19"/>
         <v>23.2819</v>
       </c>
       <c r="Z27" s="74" t="e">
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="60" t="str">
-        <f>IF(ISEVEN(B28),(B28-1)&amp;"/"&amp;B28,B28&amp;"/"&amp;(B28+1))</f>
+        <f t="shared" si="12"/>
         <v>4007/4008</v>
       </c>
       <c r="L28" s="60" t="str">
@@ -5101,11 +5101,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M28" s="12">
-        <f>I28-F28</f>
+        <f t="shared" si="13"/>
         <v>2.9363425921474118E-2</v>
       </c>
       <c r="N28" s="13">
-        <f>24*60*SUM($M28:$M28)</f>
+        <f t="shared" si="20"/>
         <v>42.28333332692273</v>
       </c>
       <c r="O28" s="13"/>
@@ -5113,27 +5113,27 @@
       <c r="Q28" s="61"/>
       <c r="R28" s="61"/>
       <c r="T28" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E28-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I28+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B28&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:35:06-0600',mode:absolute,to:'2016-05-25 07:21:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U28" s="73" t="str">
-        <f>IF(Y28&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V28" s="73">
-        <f>VALUE(LEFT(A28,3))-VALUE(LEFT(A27,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W28" s="73">
-        <f>RIGHT(D28,LEN(D28)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X28" s="73">
-        <f>RIGHT(H28,LEN(H28)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y28" s="73">
-        <f>ABS(X28-W28)</f>
+        <f t="shared" si="19"/>
         <v>23.2835</v>
       </c>
       <c r="Z28" s="74">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="60" t="str">
-        <f>IF(ISEVEN(B29),(B29-1)&amp;"/"&amp;B29,B29&amp;"/"&amp;(B29+1))</f>
+        <f t="shared" si="12"/>
         <v>4007/4008</v>
       </c>
       <c r="L29" s="60" t="str">
@@ -5185,11 +5185,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M29" s="12">
-        <f>I29-F29</f>
+        <f t="shared" si="13"/>
         <v>2.658564814919373E-2</v>
       </c>
       <c r="N29" s="13">
-        <f>24*60*SUM($M29:$M29)</f>
+        <f t="shared" si="20"/>
         <v>38.283333334838971</v>
       </c>
       <c r="O29" s="13"/>
@@ -5197,27 +5197,27 @@
       <c r="Q29" s="61"/>
       <c r="R29" s="61"/>
       <c r="T29" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E29-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I29+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B29&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:37:09-0600',mode:absolute,to:'2016-05-25 08:18:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U29" s="73" t="str">
-        <f>IF(Y29&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V29" s="73">
-        <f>VALUE(LEFT(A29,3))-VALUE(LEFT(A28,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W29" s="73">
-        <f>RIGHT(D29,LEN(D29)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X29" s="73">
-        <f>RIGHT(H29,LEN(H29)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y29" s="73">
-        <f>ABS(X29-W29)</f>
+        <f t="shared" si="19"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z29" s="74" t="e">
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="60" t="str">
-        <f>IF(ISEVEN(B30),(B30-1)&amp;"/"&amp;B30,B30&amp;"/"&amp;(B30+1))</f>
+        <f t="shared" si="12"/>
         <v>4019/4020</v>
       </c>
       <c r="L30" s="60" t="str">
@@ -5269,11 +5269,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M30" s="12">
-        <f>I30-F30</f>
+        <f t="shared" si="13"/>
         <v>3.085648147680331E-2</v>
       </c>
       <c r="N30" s="13">
-        <f>24*60*SUM($M30:$M30)</f>
+        <f t="shared" si="20"/>
         <v>44.433333326596767</v>
       </c>
       <c r="O30" s="13"/>
@@ -5281,27 +5281,27 @@
       <c r="Q30" s="61"/>
       <c r="R30" s="61"/>
       <c r="T30" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E30-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I30+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B30&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 06:50:37-0600',mode:absolute,to:'2016-05-25 07:38:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U30" s="73" t="str">
-        <f>IF(Y30&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V30" s="73">
-        <f>VALUE(LEFT(A30,3))-VALUE(LEFT(A29,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W30" s="73">
-        <f>RIGHT(D30,LEN(D30)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.53E-2</v>
       </c>
       <c r="X30" s="73">
-        <f>RIGHT(H30,LEN(H30)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.331099999999999</v>
       </c>
       <c r="Y30" s="73">
-        <f>ABS(X30-W30)</f>
+        <f t="shared" si="19"/>
         <v>23.285799999999998</v>
       </c>
       <c r="Z30" s="74">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="60" t="str">
-        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
+        <f t="shared" si="12"/>
         <v>4019/4020</v>
       </c>
       <c r="L31" s="60" t="str">
@@ -5353,11 +5353,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M31" s="12">
-        <f>I31-F31</f>
+        <f t="shared" si="13"/>
         <v>2.9317129628907423E-2</v>
       </c>
       <c r="N31" s="13">
-        <f>24*60*SUM($M31:$M31)</f>
+        <f t="shared" si="20"/>
         <v>42.21666666562669</v>
       </c>
       <c r="O31" s="13"/>
@@ -5365,27 +5365,27 @@
       <c r="Q31" s="61"/>
       <c r="R31" s="61"/>
       <c r="T31" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:49:20-0600',mode:absolute,to:'2016-05-25 08:35:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="73" t="str">
-        <f>IF(Y31&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V31" s="73">
-        <f>VALUE(LEFT(A31,3))-VALUE(LEFT(A30,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W31" s="73">
-        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.2973</v>
       </c>
       <c r="X31" s="73">
-        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y31" s="73">
-        <f>ABS(X31-W31)</f>
+        <f t="shared" si="19"/>
         <v>23.281500000000001</v>
       </c>
       <c r="Z31" s="74" t="e">
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="60" t="str">
-        <f>IF(ISEVEN(B32),(B32-1)&amp;"/"&amp;B32,B32&amp;"/"&amp;(B32+1))</f>
+        <f t="shared" si="12"/>
         <v>4039/4040</v>
       </c>
       <c r="L32" s="60" t="str">
@@ -5437,7 +5437,7 @@
         <v>ROCHA</v>
       </c>
       <c r="M32" s="12">
-        <f>I32-F32</f>
+        <f t="shared" si="13"/>
         <v>2.0798611112695653E-2</v>
       </c>
       <c r="N32" s="13"/>
@@ -5453,27 +5453,27 @@
         <v>597</v>
       </c>
       <c r="T32" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E32-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I32+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B32&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:19:33-0600',mode:absolute,to:'2016-05-25 07:52:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U32" s="73" t="str">
-        <f>IF(Y32&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
       <c r="V32" s="73">
-        <f>VALUE(LEFT(A32,3))-VALUE(LEFT(A31,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W32" s="73">
-        <f>RIGHT(D32,LEN(D32)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>1.913</v>
       </c>
       <c r="X32" s="73">
-        <f>RIGHT(H32,LEN(H32)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y32" s="73">
-        <f>ABS(X32-W32)</f>
+        <f t="shared" si="19"/>
         <v>21.418399999999998</v>
       </c>
       <c r="Z32" s="74" t="e">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="60" t="str">
-        <f>IF(ISEVEN(B33),(B33-1)&amp;"/"&amp;B33,B33&amp;"/"&amp;(B33+1))</f>
+        <f t="shared" si="12"/>
         <v>4039/4040</v>
       </c>
       <c r="L33" s="60" t="str">
@@ -5525,7 +5525,7 @@
         <v>ROCHA</v>
       </c>
       <c r="M33" s="12">
-        <f>I33-F33</f>
+        <f t="shared" si="13"/>
         <v>4.9884259278769605E-3</v>
       </c>
       <c r="N33" s="13"/>
@@ -5534,27 +5534,27 @@
       <c r="Q33" s="61"/>
       <c r="R33" s="61"/>
       <c r="T33" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E33-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I33+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B33&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:06:51-0600',mode:absolute,to:'2016-05-25 07:17:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U33" s="73" t="str">
-        <f>IF(Y33&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
       <c r="V33" s="73">
-        <f>VALUE(LEFT(A33,3))-VALUE(LEFT(A32,3))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W33" s="73">
-        <f>RIGHT(D33,LEN(D33)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="X33" s="73">
-        <f>RIGHT(H33,LEN(H33)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>0.1111</v>
       </c>
       <c r="Y33" s="73">
-        <f>ABS(X33-W33)</f>
+        <f t="shared" si="19"/>
         <v>6.25E-2</v>
       </c>
       <c r="Z33" s="74" t="e">
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="60" t="str">
-        <f>IF(ISEVEN(B34),(B34-1)&amp;"/"&amp;B34,B34&amp;"/"&amp;(B34+1))</f>
+        <f t="shared" si="12"/>
         <v>4039/4040</v>
       </c>
       <c r="L34" s="60" t="str">
@@ -5606,11 +5606,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M34" s="12">
-        <f>I34-F34</f>
+        <f t="shared" si="13"/>
         <v>2.6712962957390118E-2</v>
       </c>
       <c r="N34" s="13">
-        <f>24*60*SUM($M34:$M34)</f>
+        <f t="shared" ref="N34:N42" si="21">24*60*SUM($M34:$M34)</f>
         <v>38.46666665864177</v>
       </c>
       <c r="O34" s="13"/>
@@ -5618,27 +5618,27 @@
       <c r="Q34" s="61"/>
       <c r="R34" s="61"/>
       <c r="T34" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E34-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I34+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B34&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:06:36-0600',mode:absolute,to:'2016-05-25 08:48:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U34" s="73" t="str">
-        <f>IF(Y34&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V34" s="73">
-        <f>VALUE(LEFT(A34,3))-VALUE(LEFT(A33,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W34" s="73">
-        <f>RIGHT(D34,LEN(D34)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X34" s="73">
-        <f>RIGHT(H34,LEN(H34)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y34" s="73">
-        <f>ABS(X34-W34)</f>
+        <f t="shared" si="19"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z34" s="74" t="e">
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="60" t="str">
-        <f>IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
+        <f t="shared" si="12"/>
         <v>4037/4038</v>
       </c>
       <c r="L35" s="60" t="str">
@@ -5690,11 +5690,11 @@
         <v>YANAI</v>
       </c>
       <c r="M35" s="12">
-        <f>I35-F35</f>
+        <f t="shared" si="13"/>
         <v>2.73611111115315E-2</v>
       </c>
       <c r="N35" s="13">
-        <f>24*60*SUM($M35:$M35)</f>
+        <f t="shared" si="21"/>
         <v>39.40000000060536</v>
       </c>
       <c r="O35" s="13"/>
@@ -5702,27 +5702,27 @@
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
       <c r="T35" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:23:59-0600',mode:absolute,to:'2016-05-25 08:06:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U35" s="73" t="str">
-        <f>IF(Y35&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V35" s="73">
-        <f>VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W35" s="73">
-        <f>RIGHT(D35,LEN(D35)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X35" s="73">
-        <f>RIGHT(H35,LEN(H35)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y35" s="73">
-        <f>ABS(X35-W35)</f>
+        <f t="shared" si="19"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z35" s="74" t="e">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="60" t="str">
-        <f>IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
+        <f t="shared" si="12"/>
         <v>4037/4038</v>
       </c>
       <c r="L36" s="60" t="str">
@@ -5774,11 +5774,11 @@
         <v>YANAI</v>
       </c>
       <c r="M36" s="12">
-        <f>I36-F36</f>
+        <f t="shared" si="13"/>
         <v>2.7233796296059154E-2</v>
       </c>
       <c r="N36" s="13">
-        <f>24*60*SUM($M36:$M36)</f>
+        <f t="shared" si="21"/>
         <v>39.216666666325182</v>
       </c>
       <c r="O36" s="13"/>
@@ -5786,27 +5786,27 @@
       <c r="Q36" s="61"/>
       <c r="R36" s="61"/>
       <c r="T36" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:20:42-0600',mode:absolute,to:'2016-05-25 09:03:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U36" s="73" t="str">
-        <f>IF(Y36&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V36" s="73">
-        <f>VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W36" s="73">
-        <f>RIGHT(D36,LEN(D36)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.2986</v>
       </c>
       <c r="X36" s="73">
-        <f>RIGHT(H36,LEN(H36)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y36" s="73">
-        <f>ABS(X36-W36)</f>
+        <f t="shared" si="19"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z36" s="74" t="e">
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="60" t="str">
-        <f>IF(ISEVEN(B37),(B37-1)&amp;"/"&amp;B37,B37&amp;"/"&amp;(B37+1))</f>
+        <f t="shared" si="12"/>
         <v>4029/4030</v>
       </c>
       <c r="L37" s="60" t="str">
@@ -5858,11 +5858,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M37" s="12">
-        <f>I37-F37</f>
+        <f t="shared" si="13"/>
         <v>2.715277778042946E-2</v>
       </c>
       <c r="N37" s="13">
-        <f>24*60*SUM($M37:$M37)</f>
+        <f t="shared" si="21"/>
         <v>39.100000003818423</v>
       </c>
       <c r="O37" s="13"/>
@@ -5870,27 +5870,27 @@
       <c r="Q37" s="61"/>
       <c r="R37" s="61"/>
       <c r="T37" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E37-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I37+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B37&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:39:29-0600',mode:absolute,to:'2016-05-25 08:21:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U37" s="73" t="str">
-        <f>IF(Y37&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V37" s="73">
-        <f>VALUE(LEFT(A37,3))-VALUE(LEFT(A36,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W37" s="73">
-        <f>RIGHT(D37,LEN(D37)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="X37" s="73">
-        <f>RIGHT(H37,LEN(H37)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.332699999999999</v>
       </c>
       <c r="Y37" s="73">
-        <f>ABS(X37-W37)</f>
+        <f t="shared" si="19"/>
         <v>23.2898</v>
       </c>
       <c r="Z37" s="74" t="e">
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="60" t="str">
-        <f>IF(ISEVEN(B38),(B38-1)&amp;"/"&amp;B38,B38&amp;"/"&amp;(B38+1))</f>
+        <f t="shared" si="12"/>
         <v>4029/4030</v>
       </c>
       <c r="L38" s="60" t="str">
@@ -5942,11 +5942,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M38" s="12">
-        <f>I38-F38</f>
+        <f t="shared" si="13"/>
         <v>2.775462963472819E-2</v>
       </c>
       <c r="N38" s="13">
-        <f>24*60*SUM($M38:$M38)</f>
+        <f t="shared" si="21"/>
         <v>39.966666674008593</v>
       </c>
       <c r="O38" s="13"/>
@@ -5954,27 +5954,27 @@
       <c r="Q38" s="61"/>
       <c r="R38" s="61"/>
       <c r="T38" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:35:47-0600',mode:absolute,to:'2016-05-25 09:19:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U38" s="73" t="str">
-        <f>IF(Y38&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V38" s="73">
-        <f>VALUE(LEFT(A38,3))-VALUE(LEFT(A37,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W38" s="73">
-        <f>RIGHT(D38,LEN(D38)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.301100000000002</v>
       </c>
       <c r="X38" s="73">
-        <f>RIGHT(H38,LEN(H38)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y38" s="73">
-        <f>ABS(X38-W38)</f>
+        <f t="shared" si="19"/>
         <v>23.285100000000003</v>
       </c>
       <c r="Z38" s="74" t="e">
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="60" t="str">
-        <f>IF(ISEVEN(B39),(B39-1)&amp;"/"&amp;B39,B39&amp;"/"&amp;(B39+1))</f>
+        <f t="shared" si="12"/>
         <v>4031/4032</v>
       </c>
       <c r="L39" s="60" t="str">
@@ -6026,11 +6026,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M39" s="12">
-        <f>I39-F39</f>
+        <f t="shared" si="13"/>
         <v>2.8715277781884652E-2</v>
       </c>
       <c r="N39" s="13">
-        <f>24*60*SUM($M39:$M39)</f>
+        <f t="shared" si="21"/>
         <v>41.350000005913898</v>
       </c>
       <c r="O39" s="13"/>
@@ -6038,27 +6038,27 @@
       <c r="Q39" s="61"/>
       <c r="R39" s="61"/>
       <c r="T39" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E39-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I39+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B39&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 07:51:22-0600',mode:absolute,to:'2016-05-25 08:36:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U39" s="73" t="str">
-        <f>IF(Y39&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V39" s="73">
-        <f>VALUE(LEFT(A39,3))-VALUE(LEFT(A38,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W39" s="73">
-        <f>RIGHT(D39,LEN(D39)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X39" s="73">
-        <f>RIGHT(H39,LEN(H39)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y39" s="73">
-        <f>ABS(X39-W39)</f>
+        <f t="shared" si="19"/>
         <v>23.285500000000003</v>
       </c>
       <c r="Z39" s="74" t="e">
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="60" t="str">
-        <f>IF(ISEVEN(B40),(B40-1)&amp;"/"&amp;B40,B40&amp;"/"&amp;(B40+1))</f>
+        <f t="shared" si="12"/>
         <v>4031/4032</v>
       </c>
       <c r="L40" s="60" t="str">
@@ -6110,11 +6110,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M40" s="12">
-        <f>I40-F40</f>
+        <f t="shared" si="13"/>
         <v>2.8472222220443655E-2</v>
       </c>
       <c r="N40" s="13">
-        <f>24*60*SUM($M40:$M40)</f>
+        <f t="shared" si="21"/>
         <v>40.999999997438863</v>
       </c>
       <c r="O40" s="13"/>
@@ -6122,27 +6122,27 @@
       <c r="Q40" s="61"/>
       <c r="R40" s="61"/>
       <c r="T40" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E40-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I40+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B40&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:49:16-0600',mode:absolute,to:'2016-05-25 09:33:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U40" s="73" t="str">
-        <f>IF(Y40&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V40" s="73">
-        <f>VALUE(LEFT(A40,3))-VALUE(LEFT(A39,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W40" s="73">
-        <f>RIGHT(D40,LEN(D40)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299199999999999</v>
       </c>
       <c r="X40" s="73">
-        <f>RIGHT(H40,LEN(H40)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="Y40" s="73">
-        <f>ABS(X40-W40)</f>
+        <f t="shared" si="19"/>
         <v>23.278299999999998</v>
       </c>
       <c r="Z40" s="74" t="e">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="60" t="str">
-        <f>IF(ISEVEN(B41),(B41-1)&amp;"/"&amp;B41,B41&amp;"/"&amp;(B41+1))</f>
+        <f t="shared" si="12"/>
         <v>4009/4010</v>
       </c>
       <c r="L41" s="60" t="str">
@@ -6194,11 +6194,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M41" s="12">
-        <f>I41-F41</f>
+        <f t="shared" si="13"/>
         <v>2.9212962966994382E-2</v>
       </c>
       <c r="N41" s="13">
-        <f>24*60*SUM($M41:$M41)</f>
+        <f t="shared" si="21"/>
         <v>42.066666672471911</v>
       </c>
       <c r="O41" s="13"/>
@@ -6206,27 +6206,27 @@
       <c r="Q41" s="61"/>
       <c r="R41" s="61"/>
       <c r="T41" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E41-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I41+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B41&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:05:53-0600',mode:absolute,to:'2016-05-25 08:51:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U41" s="73" t="str">
-        <f>IF(Y41&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V41" s="73">
-        <f>VALUE(LEFT(A41,3))-VALUE(LEFT(A40,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W41" s="73">
-        <f>RIGHT(D41,LEN(D41)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X41" s="73">
-        <f>RIGHT(H41,LEN(H41)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y41" s="73">
-        <f>ABS(X41-W41)</f>
+        <f t="shared" si="19"/>
         <v>23.287200000000002</v>
       </c>
       <c r="Z41" s="74" t="e">
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="60" t="str">
-        <f>IF(ISEVEN(B42),(B42-1)&amp;"/"&amp;B42,B42&amp;"/"&amp;(B42+1))</f>
+        <f t="shared" si="12"/>
         <v>4009/4010</v>
       </c>
       <c r="L42" s="60" t="str">
@@ -6278,11 +6278,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M42" s="12">
-        <f>I42-F42</f>
+        <f t="shared" si="13"/>
         <v>3.3854166671517305E-2</v>
       </c>
       <c r="N42" s="13">
-        <f>24*60*SUM($M42:$M42)</f>
+        <f t="shared" si="21"/>
         <v>48.750000006984919</v>
       </c>
       <c r="O42" s="13"/>
@@ -6290,27 +6290,27 @@
       <c r="Q42" s="61"/>
       <c r="R42" s="61"/>
       <c r="T42" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E42-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I42+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B42&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:57:53-0600',mode:absolute,to:'2016-05-25 09:49:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U42" s="73" t="str">
-        <f>IF(Y42&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>N</v>
       </c>
       <c r="V42" s="73">
-        <f>VALUE(LEFT(A42,3))-VALUE(LEFT(A41,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W42" s="73">
-        <f>RIGHT(D42,LEN(D42)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X42" s="73">
-        <f>RIGHT(H42,LEN(H42)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y42" s="73">
-        <f>ABS(X42-W42)</f>
+        <f t="shared" si="19"/>
         <v>23.2837</v>
       </c>
       <c r="Z42" s="74">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="60" t="str">
-        <f>IF(ISEVEN(B43),(B43-1)&amp;"/"&amp;B43,B43&amp;"/"&amp;(B43+1))</f>
+        <f t="shared" si="12"/>
         <v>4007/4008</v>
       </c>
       <c r="L43" s="60" t="str">
@@ -6362,7 +6362,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M43" s="12">
-        <f>I43-F43</f>
+        <f t="shared" si="13"/>
         <v>2.0868055551545694E-2</v>
       </c>
       <c r="N43" s="13"/>
@@ -6378,27 +6378,27 @@
         <v>598</v>
       </c>
       <c r="T43" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E43-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I43+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B43&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:34:31-0600',mode:absolute,to:'2016-05-25 09:07:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U43" s="73" t="str">
-        <f>IF(Y43&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
       <c r="V43" s="73">
-        <f>VALUE(LEFT(A43,3))-VALUE(LEFT(A42,3))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W43" s="73">
-        <f>RIGHT(D43,LEN(D43)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>1.9126000000000001</v>
       </c>
       <c r="X43" s="73">
-        <f>RIGHT(H43,LEN(H43)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>23.3309</v>
       </c>
       <c r="Y43" s="73">
-        <f>ABS(X43-W43)</f>
+        <f t="shared" si="19"/>
         <v>21.418299999999999</v>
       </c>
       <c r="Z43" s="74" t="e">
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="60" t="str">
-        <f>IF(ISEVEN(B44),(B44-1)&amp;"/"&amp;B44,B44&amp;"/"&amp;(B44+1))</f>
+        <f t="shared" si="12"/>
         <v>4007/4008</v>
       </c>
       <c r="L44" s="60" t="str">
@@ -6450,7 +6450,7 @@
         <v>BRANNON</v>
       </c>
       <c r="M44" s="12">
-        <f>I44-F44</f>
+        <f t="shared" si="13"/>
         <v>6.5972222218988463E-3</v>
       </c>
       <c r="N44" s="13"/>
@@ -6459,27 +6459,27 @@
       <c r="Q44" s="61"/>
       <c r="R44" s="61"/>
       <c r="T44" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E44-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I44+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B44&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="14"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:19:04-0600',mode:absolute,to:'2016-05-25 08:32:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U44" s="73" t="str">
-        <f>IF(Y44&lt;23,"Y","N")</f>
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
       <c r="V44" s="73">
-        <f>VALUE(LEFT(A44,3))-VALUE(LEFT(A43,3))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W44" s="73">
-        <f>RIGHT(D44,LEN(D44)-4)/10000</f>
+        <f t="shared" si="17"/>
         <v>4.58E-2</v>
       </c>
       <c r="X44" s="73">
-        <f>RIGHT(H44,LEN(H44)-4)/10000</f>
+        <f t="shared" si="18"/>
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="Y44" s="73">
-        <f>ABS(X44-W44)</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="Z44" s="74" t="e">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="60" t="str">
-        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
+        <f t="shared" ref="K45:K76" si="22">IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L45" s="60" t="str">
@@ -6531,11 +6531,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M45" s="12">
-        <f>I45-F45</f>
+        <f t="shared" ref="M45:M76" si="23">I45-F45</f>
         <v>2.7847222219861578E-2</v>
       </c>
       <c r="N45" s="13">
-        <f>24*60*SUM($M45:$M45)</f>
+        <f t="shared" ref="N45:N65" si="24">24*60*SUM($M45:$M45)</f>
         <v>40.099999996600673</v>
       </c>
       <c r="O45" s="13"/>
@@ -6543,27 +6543,27 @@
       <c r="Q45" s="61"/>
       <c r="R45" s="61"/>
       <c r="T45" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T45:T76" si="25">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:19:34-0600',mode:absolute,to:'2016-05-25 10:03:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="73" t="str">
-        <f>IF(Y45&lt;23,"Y","N")</f>
+        <f t="shared" ref="U45:U76" si="26">IF(Y45&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V45" s="73">
-        <f>VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
+        <f t="shared" ref="V45:V76" si="27">VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
         <v>1</v>
       </c>
       <c r="W45" s="73">
-        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
+        <f t="shared" ref="W45:W76" si="28">RIGHT(D45,LEN(D45)-4)/10000</f>
         <v>23.298999999999999</v>
       </c>
       <c r="X45" s="73">
-        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
+        <f t="shared" ref="X45:X76" si="29">RIGHT(H45,LEN(H45)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y45" s="73">
-        <f>ABS(X45-W45)</f>
+        <f t="shared" ref="Y45:Y76" si="30">ABS(X45-W45)</f>
         <v>23.284299999999998</v>
       </c>
       <c r="Z45" s="74" t="e">
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="60" t="str">
-        <f>IF(ISEVEN(B46),(B46-1)&amp;"/"&amp;B46,B46&amp;"/"&amp;(B46+1))</f>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L46" s="60" t="str">
@@ -6615,11 +6615,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M46" s="12">
-        <f>I46-F46</f>
+        <f t="shared" si="23"/>
         <v>2.8680555558821652E-2</v>
       </c>
       <c r="N46" s="13">
-        <f>24*60*SUM($M46:$M46)</f>
+        <f t="shared" si="24"/>
         <v>41.300000004703179</v>
       </c>
       <c r="O46" s="13"/>
@@ -6627,27 +6627,27 @@
       <c r="Q46" s="61"/>
       <c r="R46" s="61"/>
       <c r="T46" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E46-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I46+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B46&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:36:57-0600',mode:absolute,to:'2016-05-25 09:22:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U46" s="73" t="str">
-        <f>IF(Y46&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V46" s="73">
-        <f>VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W46" s="73">
-        <f>RIGHT(D46,LEN(D46)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X46" s="73">
-        <f>RIGHT(H46,LEN(H46)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y46" s="73">
-        <f>ABS(X46-W46)</f>
+        <f t="shared" si="30"/>
         <v>23.284200000000002</v>
       </c>
       <c r="Z46" s="74" t="e">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="60" t="str">
-        <f>IF(ISEVEN(B47),(B47-1)&amp;"/"&amp;B47,B47&amp;"/"&amp;(B47+1))</f>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L47" s="60" t="str">
@@ -6699,11 +6699,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M47" s="12">
-        <f>I47-F47</f>
+        <f t="shared" si="23"/>
         <v>2.8692129628325347E-2</v>
       </c>
       <c r="N47" s="13">
-        <f>24*60*SUM($M47:$M47)</f>
+        <f t="shared" si="24"/>
         <v>41.316666664788499</v>
       </c>
       <c r="O47" s="13"/>
@@ -6711,27 +6711,27 @@
       <c r="Q47" s="61"/>
       <c r="R47" s="61"/>
       <c r="T47" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E47-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I47+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B47&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:34:16-0600',mode:absolute,to:'2016-05-25 10:19:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="73" t="str">
-        <f>IF(Y47&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V47" s="73">
-        <f>VALUE(LEFT(A47,3))-VALUE(LEFT(A46,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W47" s="73">
-        <f>RIGHT(D47,LEN(D47)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.296800000000001</v>
       </c>
       <c r="X47" s="73">
-        <f>RIGHT(H47,LEN(H47)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y47" s="73">
-        <f>ABS(X47-W47)</f>
+        <f t="shared" si="30"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z47" s="74" t="e">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="60" t="str">
-        <f>IF(ISEVEN(B48),(B48-1)&amp;"/"&amp;B48,B48&amp;"/"&amp;(B48+1))</f>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L48" s="60" t="str">
@@ -6783,11 +6783,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M48" s="12">
-        <f>I48-F48</f>
+        <f t="shared" si="23"/>
         <v>2.6469907410501037E-2</v>
       </c>
       <c r="N48" s="13">
-        <f>24*60*SUM($M48:$M48)</f>
+        <f t="shared" si="24"/>
         <v>38.116666671121493</v>
       </c>
       <c r="O48" s="13"/>
@@ -6795,27 +6795,27 @@
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
       <c r="T48" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E48-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I48+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B48&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 08:54:10-0600',mode:absolute,to:'2016-05-25 09:36:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="73" t="str">
-        <f>IF(Y48&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V48" s="73">
-        <f>VALUE(LEFT(A48,3))-VALUE(LEFT(A47,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W48" s="73">
-        <f>RIGHT(D48,LEN(D48)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X48" s="73">
-        <f>RIGHT(H48,LEN(H48)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y48" s="73">
-        <f>ABS(X48-W48)</f>
+        <f t="shared" si="30"/>
         <v>23.285600000000002</v>
       </c>
       <c r="Z48" s="74" t="e">
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="60" t="str">
-        <f>IF(ISEVEN(B49),(B49-1)&amp;"/"&amp;B49,B49&amp;"/"&amp;(B49+1))</f>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L49" s="60" t="str">
@@ -6867,11 +6867,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M49" s="12">
-        <f>I49-F49</f>
+        <f t="shared" si="23"/>
         <v>2.5219907409336884E-2</v>
       </c>
       <c r="N49" s="13">
-        <f>24*60*SUM($M49:$M49)</f>
+        <f t="shared" si="24"/>
         <v>36.316666669445112</v>
       </c>
       <c r="O49" s="13"/>
@@ -6879,27 +6879,27 @@
       <c r="Q49" s="61"/>
       <c r="R49" s="61"/>
       <c r="T49" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E49-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I49+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B49&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:55:07-0600',mode:absolute,to:'2016-05-25 10:34:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="73" t="str">
-        <f>IF(Y49&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V49" s="73">
-        <f>VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W49" s="73">
-        <f>RIGHT(D49,LEN(D49)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X49" s="73">
-        <f>RIGHT(H49,LEN(H49)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y49" s="73">
-        <f>ABS(X49-W49)</f>
+        <f t="shared" si="30"/>
         <v>23.282599999999999</v>
       </c>
       <c r="Z49" s="74">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="60" t="str">
-        <f>IF(ISEVEN(B50),(B50-1)&amp;"/"&amp;B50,B50&amp;"/"&amp;(B50+1))</f>
+        <f t="shared" si="22"/>
         <v>4037/4038</v>
       </c>
       <c r="L50" s="60" t="str">
@@ -6951,11 +6951,11 @@
         <v>YANAI</v>
       </c>
       <c r="M50" s="12">
-        <f>I50-F50</f>
+        <f t="shared" si="23"/>
         <v>2.9224537036498077E-2</v>
       </c>
       <c r="N50" s="13">
-        <f>24*60*SUM($M50:$M50)</f>
+        <f t="shared" si="24"/>
         <v>42.083333332557231</v>
       </c>
       <c r="O50" s="13"/>
@@ -6963,27 +6963,27 @@
       <c r="Q50" s="61"/>
       <c r="R50" s="61"/>
       <c r="T50" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E50-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I50+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B50&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:06:41-0600',mode:absolute,to:'2016-05-25 09:52:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="73" t="str">
-        <f>IF(Y50&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V50" s="73">
-        <f>VALUE(LEFT(A50,3))-VALUE(LEFT(A49,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W50" s="73">
-        <f>RIGHT(D50,LEN(D50)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X50" s="73">
-        <f>RIGHT(H50,LEN(H50)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.331</v>
       </c>
       <c r="Y50" s="73">
-        <f>ABS(X50-W50)</f>
+        <f t="shared" si="30"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z50" s="74" t="e">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="60" t="str">
-        <f>IF(ISEVEN(B51),(B51-1)&amp;"/"&amp;B51,B51&amp;"/"&amp;(B51+1))</f>
+        <f t="shared" si="22"/>
         <v>4037/4038</v>
       </c>
       <c r="L51" s="60" t="str">
@@ -7035,11 +7035,11 @@
         <v>YANAI</v>
       </c>
       <c r="M51" s="12">
-        <f>I51-F51</f>
+        <f t="shared" si="23"/>
         <v>2.7453703703940846E-2</v>
       </c>
       <c r="N51" s="13">
-        <f>24*60*SUM($M51:$M51)</f>
+        <f t="shared" si="24"/>
         <v>39.533333333674818</v>
       </c>
       <c r="O51" s="13"/>
@@ -7047,27 +7047,27 @@
       <c r="Q51" s="61"/>
       <c r="R51" s="61"/>
       <c r="T51" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E51-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I51+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B51&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:05:55-0600',mode:absolute,to:'2016-05-25 10:48:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="73" t="str">
-        <f>IF(Y51&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V51" s="73">
-        <f>VALUE(LEFT(A51,3))-VALUE(LEFT(A50,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W51" s="73">
-        <f>RIGHT(D51,LEN(D51)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X51" s="73">
-        <f>RIGHT(H51,LEN(H51)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y51" s="73">
-        <f>ABS(X51-W51)</f>
+        <f t="shared" si="30"/>
         <v>23.2852</v>
       </c>
       <c r="Z51" s="74" t="e">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="60" t="str">
-        <f>IF(ISEVEN(B52),(B52-1)&amp;"/"&amp;B52,B52&amp;"/"&amp;(B52+1))</f>
+        <f t="shared" si="22"/>
         <v>4029/4030</v>
       </c>
       <c r="L52" s="60" t="str">
@@ -7119,11 +7119,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M52" s="12">
-        <f>I52-F52</f>
+        <f t="shared" si="23"/>
         <v>2.9282407405844424E-2</v>
       </c>
       <c r="N52" s="13">
-        <f>24*60*SUM($M52:$M52)</f>
+        <f t="shared" si="24"/>
         <v>42.16666666441597</v>
       </c>
       <c r="O52" s="13"/>
@@ -7131,27 +7131,27 @@
       <c r="Q52" s="61"/>
       <c r="R52" s="61"/>
       <c r="T52" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E52-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I52+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B52&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:21:24-0600',mode:absolute,to:'2016-05-25 10:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="73" t="str">
-        <f>IF(Y52&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V52" s="73">
-        <f>VALUE(LEFT(A52,3))-VALUE(LEFT(A51,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W52" s="73">
-        <f>RIGHT(D52,LEN(D52)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X52" s="73">
-        <f>RIGHT(H52,LEN(H52)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.3309</v>
       </c>
       <c r="Y52" s="73">
-        <f>ABS(X52-W52)</f>
+        <f t="shared" si="30"/>
         <v>23.286899999999999</v>
       </c>
       <c r="Z52" s="74" t="e">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="60" t="str">
-        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
+        <f t="shared" si="22"/>
         <v>4029/4030</v>
       </c>
       <c r="L53" s="60" t="str">
@@ -7203,11 +7203,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M53" s="12">
-        <f>I53-F53</f>
+        <f t="shared" si="23"/>
         <v>3.1759259261889383E-2</v>
       </c>
       <c r="N53" s="13">
-        <f>24*60*SUM($M53:$M53)</f>
+        <f t="shared" si="24"/>
         <v>45.733333337120712</v>
       </c>
       <c r="O53" s="13"/>
@@ -7215,27 +7215,27 @@
       <c r="Q53" s="61"/>
       <c r="R53" s="61"/>
       <c r="T53" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:15:15-0600',mode:absolute,to:'2016-05-25 11:04:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="73" t="str">
-        <f>IF(Y53&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V53" s="73">
-        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W53" s="73">
-        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X53" s="73">
-        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Y53" s="73">
-        <f>ABS(X53-W53)</f>
+        <f t="shared" si="30"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z53" s="74" t="e">
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="60" t="str">
-        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L54" s="60" t="str">
@@ -7287,11 +7287,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M54" s="12">
-        <f>I54-F54</f>
+        <f t="shared" si="23"/>
         <v>2.9166666667151731E-2</v>
       </c>
       <c r="N54" s="13">
-        <f>24*60*SUM($M54:$M54)</f>
+        <f t="shared" si="24"/>
         <v>42.000000000698492</v>
       </c>
       <c r="O54" s="13"/>
@@ -7299,27 +7299,27 @@
       <c r="Q54" s="61"/>
       <c r="R54" s="61"/>
       <c r="T54" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:35:57-0600',mode:absolute,to:'2016-05-25 10:21:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="73" t="str">
-        <f>IF(Y54&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V54" s="73">
-        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W54" s="73">
-        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>5.2200000000000003E-2</v>
       </c>
       <c r="X54" s="73">
-        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y54" s="73">
-        <f>ABS(X54-W54)</f>
+        <f t="shared" si="30"/>
         <v>23.279</v>
       </c>
       <c r="Z54" s="74" t="e">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="60" t="str">
-        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L55" s="60" t="str">
@@ -7371,11 +7371,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M55" s="12">
-        <f>I55-F55</f>
+        <f t="shared" si="23"/>
         <v>2.7604166665696539E-2</v>
       </c>
       <c r="N55" s="13">
-        <f>24*60*SUM($M55:$M55)</f>
+        <f t="shared" si="24"/>
         <v>39.749999998603016</v>
       </c>
       <c r="O55" s="13"/>
@@ -7383,27 +7383,27 @@
       <c r="Q55" s="61"/>
       <c r="R55" s="61"/>
       <c r="T55" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:35:31-0600',mode:absolute,to:'2016-05-25 11:19:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="73" t="str">
-        <f>IF(Y55&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V55" s="73">
-        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W55" s="73">
-        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.2989</v>
       </c>
       <c r="X55" s="73">
-        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Y55" s="73">
-        <f>ABS(X55-W55)</f>
+        <f t="shared" si="30"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z55" s="74" t="e">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="60" t="str">
-        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L56" s="60" t="str">
@@ -7455,11 +7455,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M56" s="12">
-        <f>I56-F56</f>
+        <f t="shared" si="23"/>
         <v>3.0081018521741498E-2</v>
       </c>
       <c r="N56" s="13">
-        <f>24*60*SUM($M56:$M56)</f>
+        <f t="shared" si="24"/>
         <v>43.316666671307757</v>
       </c>
       <c r="O56" s="13"/>
@@ -7467,27 +7467,27 @@
       <c r="Q56" s="61"/>
       <c r="R56" s="61"/>
       <c r="T56" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 09:51:20-0600',mode:absolute,to:'2016-05-25 10:37:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="73" t="str">
-        <f>IF(Y56&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V56" s="73">
-        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W56" s="73">
-        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X56" s="73">
-        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.328399999999998</v>
       </c>
       <c r="Y56" s="73">
-        <f>ABS(X56-W56)</f>
+        <f t="shared" si="30"/>
         <v>23.282899999999998</v>
       </c>
       <c r="Z56" s="74" t="e">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="60" t="str">
-        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L57" s="60" t="str">
@@ -7539,11 +7539,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M57" s="12">
-        <f>I57-F57</f>
+        <f t="shared" si="23"/>
         <v>3.2048611108621117E-2</v>
       </c>
       <c r="N57" s="13">
-        <f>24*60*SUM($M57:$M57)</f>
+        <f t="shared" si="24"/>
         <v>46.149999996414408</v>
       </c>
       <c r="O57" s="13"/>
@@ -7551,27 +7551,27 @@
       <c r="Q57" s="61"/>
       <c r="R57" s="61"/>
       <c r="T57" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:45:10-0600',mode:absolute,to:'2016-05-25 11:34:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="73" t="str">
-        <f>IF(Y57&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V57" s="73">
-        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W57" s="73">
-        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.296900000000001</v>
       </c>
       <c r="X57" s="73">
-        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y57" s="73">
-        <f>ABS(X57-W57)</f>
+        <f t="shared" si="30"/>
         <v>23.2819</v>
       </c>
       <c r="Z57" s="74" t="e">
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="60" t="str">
-        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
+        <f t="shared" si="22"/>
         <v>4007/4008</v>
       </c>
       <c r="L58" s="60" t="str">
@@ -7623,11 +7623,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M58" s="12">
-        <f>I58-F58</f>
+        <f t="shared" si="23"/>
         <v>2.8194444443215616E-2</v>
       </c>
       <c r="N58" s="13">
-        <f>24*60*SUM($M58:$M58)</f>
+        <f t="shared" si="24"/>
         <v>40.599999998230487</v>
       </c>
       <c r="O58" s="13"/>
@@ -7635,27 +7635,27 @@
       <c r="Q58" s="61"/>
       <c r="R58" s="61"/>
       <c r="T58" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:07:00-0600',mode:absolute,to:'2016-05-25 10:51:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="73" t="str">
-        <f>IF(Y58&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V58" s="73">
-        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W58" s="73">
-        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="X58" s="73">
-        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y58" s="73">
-        <f>ABS(X58-W58)</f>
+        <f t="shared" si="30"/>
         <v>23.2822</v>
       </c>
       <c r="Z58" s="74" t="e">
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="60" t="str">
-        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
+        <f t="shared" si="22"/>
         <v>4007/4008</v>
       </c>
       <c r="L59" s="60" t="str">
@@ -7707,11 +7707,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M59" s="12">
-        <f>I59-F59</f>
+        <f t="shared" si="23"/>
         <v>3.1168981477094349E-2</v>
       </c>
       <c r="N59" s="13">
-        <f>24*60*SUM($M59:$M59)</f>
+        <f t="shared" si="24"/>
         <v>44.883333327015862</v>
       </c>
       <c r="O59" s="13"/>
@@ -7719,27 +7719,27 @@
       <c r="Q59" s="61"/>
       <c r="R59" s="61"/>
       <c r="T59" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:01:55-0600',mode:absolute,to:'2016-05-25 11:50:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="73" t="str">
-        <f>IF(Y59&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V59" s="73">
-        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W59" s="73">
-        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.2989</v>
       </c>
       <c r="X59" s="73">
-        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y59" s="73">
-        <f>ABS(X59-W59)</f>
+        <f t="shared" si="30"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z59" s="74">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="60" t="str">
-        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L60" s="60" t="str">
@@ -7791,11 +7791,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M60" s="12">
-        <f>I60-F60</f>
+        <f t="shared" si="23"/>
         <v>2.7025462964957114E-2</v>
       </c>
       <c r="N60" s="13">
-        <f>24*60*SUM($M60:$M60)</f>
+        <f t="shared" si="24"/>
         <v>38.916666669538245</v>
       </c>
       <c r="O60" s="13"/>
@@ -7803,27 +7803,27 @@
       <c r="Q60" s="61"/>
       <c r="R60" s="61"/>
       <c r="T60" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:23:04-0600',mode:absolute,to:'2016-05-25 11:06:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="73" t="str">
-        <f>IF(Y60&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V60" s="73">
-        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W60" s="73">
-        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X60" s="73">
-        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.330500000000001</v>
       </c>
       <c r="Y60" s="73">
-        <f>ABS(X60-W60)</f>
+        <f t="shared" si="30"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z60" s="74" t="e">
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="60" t="str">
-        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L61" s="60" t="str">
@@ -7875,11 +7875,11 @@
         <v>BRANNON</v>
       </c>
       <c r="M61" s="12">
-        <f>I61-F61</f>
+        <f t="shared" si="23"/>
         <v>2.810185185080627E-2</v>
       </c>
       <c r="N61" s="13">
-        <f>24*60*SUM($M61:$M61)</f>
+        <f t="shared" si="24"/>
         <v>40.466666665161029</v>
       </c>
       <c r="O61" s="13"/>
@@ -7887,27 +7887,27 @@
       <c r="Q61" s="61"/>
       <c r="R61" s="61"/>
       <c r="T61" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:19:38-0600',mode:absolute,to:'2016-05-25 12:03:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="73" t="str">
-        <f>IF(Y61&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V61" s="73">
-        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W61" s="73">
-        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X61" s="73">
-        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y61" s="73">
-        <f>ABS(X61-W61)</f>
+        <f t="shared" si="30"/>
         <v>23.2835</v>
       </c>
       <c r="Z61" s="74">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="60" t="str">
-        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L62" s="60" t="str">
@@ -7959,11 +7959,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M62" s="12">
-        <f>I62-F62</f>
+        <f t="shared" si="23"/>
         <v>2.7650462965539191E-2</v>
       </c>
       <c r="N62" s="13">
-        <f>24*60*SUM($M62:$M62)</f>
+        <f t="shared" si="24"/>
         <v>39.816666670376435</v>
       </c>
       <c r="O62" s="13"/>
@@ -7971,27 +7971,27 @@
       <c r="Q62" s="61"/>
       <c r="R62" s="61"/>
       <c r="T62" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:37:47-0600',mode:absolute,to:'2016-05-25 11:22:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="73" t="str">
-        <f>IF(Y62&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V62" s="73">
-        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W62" s="73">
-        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X62" s="73">
-        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y62" s="73">
-        <f>ABS(X62-W62)</f>
+        <f t="shared" si="30"/>
         <v>23.283999999999999</v>
       </c>
       <c r="Z62" s="74" t="e">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="60" t="str">
-        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L63" s="60" t="str">
@@ -8043,11 +8043,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M63" s="12">
-        <f>I63-F63</f>
+        <f t="shared" si="23"/>
         <v>3.439814814919373E-2</v>
       </c>
       <c r="N63" s="13">
-        <f>24*60*SUM($M63:$M63)</f>
+        <f t="shared" si="24"/>
         <v>49.533333334838971</v>
       </c>
       <c r="O63" s="13"/>
@@ -8055,27 +8055,27 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="61"/>
       <c r="T63" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:30:48-0600',mode:absolute,to:'2016-05-25 12:26:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="73" t="str">
-        <f>IF(Y63&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V63" s="73">
-        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W63" s="73">
-        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X63" s="73">
-        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y63" s="73">
-        <f>ABS(X63-W63)</f>
+        <f t="shared" si="30"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z63" s="74" t="e">
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="60" t="str">
-        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
+        <f t="shared" si="22"/>
         <v>4037/4038</v>
       </c>
       <c r="L64" s="60" t="str">
@@ -8127,11 +8127,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M64" s="12">
-        <f>I64-F64</f>
+        <f t="shared" si="23"/>
         <v>2.8749999997671694E-2</v>
       </c>
       <c r="N64" s="13">
-        <f>24*60*SUM($M64:$M64)</f>
+        <f t="shared" si="24"/>
         <v>41.399999996647239</v>
       </c>
       <c r="O64" s="13"/>
@@ -8139,27 +8139,27 @@
       <c r="Q64" s="61"/>
       <c r="R64" s="61"/>
       <c r="T64" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 10:51:22-0600',mode:absolute,to:'2016-05-25 11:36:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="73" t="str">
-        <f>IF(Y64&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V64" s="73">
-        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W64" s="73">
-        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X64" s="73">
-        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.330500000000001</v>
       </c>
       <c r="Y64" s="73">
-        <f>ABS(X64-W64)</f>
+        <f t="shared" si="30"/>
         <v>23.2867</v>
       </c>
       <c r="Z64" s="74" t="e">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="60" t="str">
-        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <f t="shared" si="22"/>
         <v>4037/4038</v>
       </c>
       <c r="L65" s="60" t="str">
@@ -8211,11 +8211,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M65" s="12">
-        <f>I65-F65</f>
+        <f t="shared" si="23"/>
         <v>3.4027777779556345E-2</v>
       </c>
       <c r="N65" s="13">
-        <f>24*60*SUM($M65:$M65)</f>
+        <f t="shared" si="24"/>
         <v>49.000000002561137</v>
       </c>
       <c r="O65" s="13"/>
@@ -8223,27 +8223,27 @@
       <c r="Q65" s="61"/>
       <c r="R65" s="61"/>
       <c r="T65" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:41:48-0600',mode:absolute,to:'2016-05-25 12:34:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="73" t="str">
-        <f>IF(Y65&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V65" s="73">
-        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W65" s="73">
-        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.298200000000001</v>
       </c>
       <c r="X65" s="73">
-        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y65" s="73">
-        <f>ABS(X65-W65)</f>
+        <f t="shared" si="30"/>
         <v>23.282800000000002</v>
       </c>
       <c r="Z65" s="74" t="e">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="60" t="str">
-        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
+        <f t="shared" si="22"/>
         <v>4029/4030</v>
       </c>
       <c r="L66" s="60" t="str">
@@ -8295,7 +8295,7 @@
         <v>LOZA</v>
       </c>
       <c r="M66" s="12">
-        <f>I66-F66</f>
+        <f t="shared" si="23"/>
         <v>6.36574077361729E-4</v>
       </c>
       <c r="N66" s="13"/>
@@ -8311,27 +8311,27 @@
         <v>601</v>
       </c>
       <c r="T66" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:21:20-0600',mode:absolute,to:'2016-05-25 11:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="73" t="str">
-        <f>IF(Y66&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V66" s="73">
-        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W66" s="73">
-        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>1.9120999999999999</v>
       </c>
       <c r="X66" s="73">
-        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>2.0731000000000002</v>
       </c>
       <c r="Y66" s="73">
-        <f>ABS(X66-W66)</f>
+        <f t="shared" si="30"/>
         <v>0.16100000000000025</v>
       </c>
       <c r="Z66" s="74" t="e">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="60" t="str">
-        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
+        <f t="shared" si="22"/>
         <v>4029/4030</v>
       </c>
       <c r="L67" s="60" t="str">
@@ -8383,7 +8383,7 @@
         <v>LOZA</v>
       </c>
       <c r="M67" s="12">
-        <f>I67-F67</f>
+        <f t="shared" si="23"/>
         <v>6.2731481448281556E-3</v>
       </c>
       <c r="N67" s="13"/>
@@ -8392,27 +8392,27 @@
       <c r="Q67" s="61"/>
       <c r="R67" s="61"/>
       <c r="T67" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:10:20-0600',mode:absolute,to:'2016-05-25 11:23:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="73" t="str">
-        <f>IF(Y67&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V67" s="73">
-        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W67" s="73">
-        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X67" s="73">
-        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.9117</v>
       </c>
       <c r="Y67" s="73">
-        <f>ABS(X67-W67)</f>
+        <f t="shared" si="30"/>
         <v>1.8661999999999999</v>
       </c>
       <c r="Z67" s="74" t="e">
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="60" t="str">
-        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <f t="shared" si="22"/>
         <v>4029/4030</v>
       </c>
       <c r="L68" s="60" t="str">
@@ -8464,7 +8464,7 @@
         <v>LOZA</v>
       </c>
       <c r="M68" s="12">
-        <f>I68-F68</f>
+        <f t="shared" si="23"/>
         <v>1.5486111115023959E-2</v>
       </c>
       <c r="N68" s="13"/>
@@ -8480,27 +8480,27 @@
         <v>601</v>
       </c>
       <c r="T68" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:25:41-0600',mode:absolute,to:'2016-05-25 12:50:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="73" t="str">
-        <f>IF(Y68&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V68" s="73">
-        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W68" s="73">
-        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>12.7874</v>
       </c>
       <c r="X68" s="73">
-        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y68" s="73">
-        <f>ABS(X68-W68)</f>
+        <f t="shared" si="30"/>
         <v>12.7727</v>
       </c>
       <c r="Z68" s="74" t="e">
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="60" t="str">
-        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="22"/>
         <v>4029/4030</v>
       </c>
       <c r="L69" s="60" t="str">
@@ -8552,7 +8552,7 @@
         <v>LOZA</v>
       </c>
       <c r="M69" s="12">
-        <f>I69-F69</f>
+        <f t="shared" si="23"/>
         <v>1.2199074073578231E-2</v>
       </c>
       <c r="N69" s="13"/>
@@ -8561,27 +8561,27 @@
       <c r="Q69" s="61"/>
       <c r="R69" s="61"/>
       <c r="T69" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:06:08-0600',mode:absolute,to:'2016-05-25 12:27:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="73" t="str">
-        <f>IF(Y69&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V69" s="73">
-        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W69" s="73">
-        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.302700000000002</v>
       </c>
       <c r="X69" s="73">
-        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>12.7872</v>
       </c>
       <c r="Y69" s="73">
-        <f>ABS(X69-W69)</f>
+        <f t="shared" si="30"/>
         <v>10.515500000000001</v>
       </c>
       <c r="Z69" s="74" t="e">
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="60" t="str">
-        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L70" s="60" t="str">
@@ -8633,7 +8633,7 @@
         <v>YORK</v>
       </c>
       <c r="M70" s="12">
-        <f>I70-F70</f>
+        <f t="shared" si="23"/>
         <v>9.4097222172422335E-3</v>
       </c>
       <c r="N70" s="13"/>
@@ -8649,27 +8649,27 @@
         <v>601</v>
       </c>
       <c r="T70" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:20:19-0600',mode:absolute,to:'2016-05-25 11:37:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="73" t="str">
-        <f>IF(Y70&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V70" s="73">
-        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W70" s="73">
-        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X70" s="73">
-        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.9136</v>
       </c>
       <c r="Y70" s="73">
-        <f>ABS(X70-W70)</f>
+        <f t="shared" si="30"/>
         <v>1.8685</v>
       </c>
       <c r="Z70" s="74" t="e">
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="60" t="str">
-        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L71" s="60" t="str">
@@ -8721,7 +8721,7 @@
         <v>YORK</v>
       </c>
       <c r="M71" s="12">
-        <f>I71-F71</f>
+        <f t="shared" si="23"/>
         <v>2.1990740715409629E-3</v>
       </c>
       <c r="N71" s="13"/>
@@ -8730,27 +8730,27 @@
       <c r="Q71" s="61"/>
       <c r="R71" s="61"/>
       <c r="T71" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:43:44-0600',mode:absolute,to:'2016-05-25 11:50:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="73" t="str">
-        <f>IF(Y71&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V71" s="73">
-        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W71" s="73">
-        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>6.4690000000000003</v>
       </c>
       <c r="X71" s="73">
-        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>8.6374999999999993</v>
       </c>
       <c r="Y71" s="73">
-        <f>ABS(X71-W71)</f>
+        <f t="shared" si="30"/>
         <v>2.168499999999999</v>
       </c>
       <c r="Z71" s="74" t="e">
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="60" t="str">
-        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L72" s="60" t="str">
@@ -8802,7 +8802,7 @@
         <v>YORK</v>
       </c>
       <c r="M72" s="12">
-        <f>I72-F72</f>
+        <f t="shared" si="23"/>
         <v>6.6087962914025411E-3</v>
       </c>
       <c r="N72" s="13"/>
@@ -8818,27 +8818,27 @@
         <v>601</v>
       </c>
       <c r="T72" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:10:42-0600',mode:absolute,to:'2016-05-25 12:24:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="73" t="str">
-        <f>IF(Y72&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V72" s="73">
-        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W72" s="73">
-        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X72" s="73">
-        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.297799999999999</v>
       </c>
       <c r="Y72" s="73">
-        <f>ABS(X72-W72)</f>
+        <f t="shared" si="30"/>
         <v>9.9999999999766942E-5</v>
       </c>
       <c r="Z72" s="74" t="e">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="60" t="str">
-        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L73" s="60" t="str">
@@ -8890,7 +8890,7 @@
         <v>BUTLER</v>
       </c>
       <c r="M73" s="12">
-        <f>I73-F73</f>
+        <f t="shared" si="23"/>
         <v>4.2824073898373172E-4</v>
       </c>
       <c r="N73" s="13"/>
@@ -8906,27 +8906,27 @@
         <v>601</v>
       </c>
       <c r="T73" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:50:01-0600',mode:absolute,to:'2016-05-25 11:53:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="73" t="str">
-        <f>IF(Y73&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V73" s="73">
-        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W73" s="73">
-        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>1.9137</v>
       </c>
       <c r="X73" s="73">
-        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>1.9421999999999999</v>
       </c>
       <c r="Y73" s="73">
-        <f>ABS(X73-W73)</f>
+        <f t="shared" si="30"/>
         <v>2.849999999999997E-2</v>
       </c>
       <c r="Z73" s="74" t="e">
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="60" t="str">
-        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L74" s="60" t="str">
@@ -8978,7 +8978,7 @@
         <v>BUTLER</v>
       </c>
       <c r="M74" s="12">
-        <f>I74-F74</f>
+        <f t="shared" si="23"/>
         <v>4.7222222201526165E-3</v>
       </c>
       <c r="N74" s="13"/>
@@ -8987,27 +8987,27 @@
       <c r="Q74" s="61"/>
       <c r="R74" s="61"/>
       <c r="T74" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:36:04-0600',mode:absolute,to:'2016-05-25 11:47:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="73" t="str">
-        <f>IF(Y74&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V74" s="73">
-        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W74" s="73">
-        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X74" s="73">
-        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>0.12239999999999999</v>
       </c>
       <c r="Y74" s="73">
-        <f>ABS(X74-W74)</f>
+        <f t="shared" si="30"/>
         <v>7.7699999999999991E-2</v>
       </c>
       <c r="Z74" s="74" t="e">
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="60" t="str">
-        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L75" s="60" t="str">
@@ -9059,7 +9059,7 @@
         <v>BUTLER</v>
       </c>
       <c r="M75" s="12">
-        <f>I75-F75</f>
+        <f t="shared" si="23"/>
         <v>6.8749999991268851E-3</v>
       </c>
       <c r="N75" s="13"/>
@@ -9075,27 +9075,27 @@
         <v>601</v>
       </c>
       <c r="T75" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:29:08-0600',mode:absolute,to:'2016-05-25 12:43:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="73" t="str">
-        <f>IF(Y75&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>Y</v>
       </c>
       <c r="V75" s="73">
-        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W75" s="73">
-        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X75" s="73">
-        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.239599999999999</v>
       </c>
       <c r="Y75" s="73">
-        <f>ABS(X75-W75)</f>
+        <f t="shared" si="30"/>
         <v>6.0000000000002274E-2</v>
       </c>
       <c r="Z75" s="74" t="e">
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="60" t="str">
-        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
+        <f t="shared" si="22"/>
         <v>4027/4028</v>
       </c>
       <c r="L76" s="60" t="str">
@@ -9147,7 +9147,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M76" s="12">
-        <f>I76-F76</f>
+        <f t="shared" si="23"/>
         <v>2.4756944447290152E-2</v>
       </c>
       <c r="N76" s="13">
@@ -9159,27 +9159,27 @@
       <c r="Q76" s="61"/>
       <c r="R76" s="61"/>
       <c r="T76" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="25"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 11:58:35-0600',mode:absolute,to:'2016-05-25 12:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="73" t="str">
-        <f>IF(Y76&lt;23,"Y","N")</f>
+        <f t="shared" si="26"/>
         <v>N</v>
       </c>
       <c r="V76" s="73">
-        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="W76" s="73">
-        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
+        <f t="shared" si="28"/>
         <v>0.14940000000000001</v>
       </c>
       <c r="X76" s="73">
-        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>23.332799999999999</v>
       </c>
       <c r="Y76" s="73">
-        <f>ABS(X76-W76)</f>
+        <f t="shared" si="30"/>
         <v>23.183399999999999</v>
       </c>
       <c r="Z76" s="74" t="e">
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="60" t="str">
-        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
+        <f t="shared" ref="K77:K108" si="31">IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
         <v>4027/4028</v>
       </c>
       <c r="L77" s="60" t="str">
@@ -9231,7 +9231,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M77" s="12">
-        <f>I77-F77</f>
+        <f t="shared" ref="M77:M108" si="32">I77-F77</f>
         <v>3.8136574075906537E-2</v>
       </c>
       <c r="N77" s="13">
@@ -9243,27 +9243,27 @@
       <c r="Q77" s="61"/>
       <c r="R77" s="61"/>
       <c r="T77" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T77:T108" si="33">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:49:00-0600',mode:absolute,to:'2016-05-25 13:48:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="73" t="str">
-        <f>IF(Y77&lt;23,"Y","N")</f>
+        <f t="shared" ref="U77:U108" si="34">IF(Y77&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V77" s="73">
-        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
+        <f t="shared" ref="V77:V108" si="35">VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
         <v>1</v>
       </c>
       <c r="W77" s="73">
-        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
+        <f t="shared" ref="W77:W108" si="36">RIGHT(D77,LEN(D77)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X77" s="73">
-        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
+        <f t="shared" ref="X77:X108" si="37">RIGHT(H77,LEN(H77)-4)/10000</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Y77" s="73">
-        <f>ABS(X77-W77)</f>
+        <f t="shared" ref="Y77:Y108" si="38">ABS(X77-W77)</f>
         <v>23.2818</v>
       </c>
       <c r="Z77" s="74">
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="60" t="str">
-        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
+        <f t="shared" si="31"/>
         <v>4019/4020</v>
       </c>
       <c r="L78" s="60" t="str">
@@ -9315,7 +9315,7 @@
         <v>STEWART</v>
       </c>
       <c r="M78" s="12">
-        <f>I78-F78</f>
+        <f t="shared" si="32"/>
         <v>1.0069444397231564E-3</v>
       </c>
       <c r="N78" s="13"/>
@@ -9331,27 +9331,27 @@
         <v>601</v>
       </c>
       <c r="T78" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:19:49-0600',mode:absolute,to:'2016-05-25 12:24:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="73" t="str">
-        <f>IF(Y78&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V78" s="73">
-        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W78" s="73">
-        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.9137</v>
       </c>
       <c r="X78" s="73">
-        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.9597</v>
       </c>
       <c r="Y78" s="73">
-        <f>ABS(X78-W78)</f>
+        <f t="shared" si="38"/>
         <v>4.6000000000000041E-2</v>
       </c>
       <c r="Z78" s="74" t="e">
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="60" t="str">
-        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
+        <f t="shared" si="31"/>
         <v>4019/4020</v>
       </c>
       <c r="L79" s="60" t="str">
@@ -9403,7 +9403,7 @@
         <v>STEWART</v>
       </c>
       <c r="M79" s="12">
-        <f>I79-F79</f>
+        <f t="shared" si="32"/>
         <v>4.6064814814599231E-3</v>
       </c>
       <c r="N79" s="13"/>
@@ -9412,27 +9412,27 @@
       <c r="Q79" s="61"/>
       <c r="R79" s="61"/>
       <c r="T79" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:07:10-0600',mode:absolute,to:'2016-05-25 12:17:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="73" t="str">
-        <f>IF(Y79&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V79" s="73">
-        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W79" s="73">
-        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.53E-2</v>
       </c>
       <c r="X79" s="73">
-        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>0.12529999999999999</v>
       </c>
       <c r="Y79" s="73">
-        <f>ABS(X79-W79)</f>
+        <f t="shared" si="38"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="Z79" s="74" t="e">
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="60" t="str">
-        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
+        <f t="shared" si="31"/>
         <v>4019/4020</v>
       </c>
       <c r="L80" s="60" t="str">
@@ -9484,7 +9484,7 @@
         <v>STEWART</v>
       </c>
       <c r="M80" s="12">
-        <f>I80-F80</f>
+        <f t="shared" si="32"/>
         <v>2.5578703643986955E-3</v>
       </c>
       <c r="N80" s="13"/>
@@ -9500,27 +9500,27 @@
         <v>601</v>
       </c>
       <c r="T80" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:04:38-0600',mode:absolute,to:'2016-05-25 13:13:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="73" t="str">
-        <f>IF(Y80&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V80" s="73">
-        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W80" s="73">
-        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X80" s="73">
-        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.242799999999999</v>
       </c>
       <c r="Y80" s="73">
-        <f>ABS(X80-W80)</f>
+        <f t="shared" si="38"/>
         <v>5.6499999999999773E-2</v>
       </c>
       <c r="Z80" s="74" t="e">
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="60" t="str">
-        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="31"/>
         <v>4039/4040</v>
       </c>
       <c r="L81" s="60" t="str">
@@ -9572,7 +9572,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M81" s="12">
-        <f>I81-F81</f>
+        <f t="shared" si="32"/>
         <v>2.4861111109203193E-2</v>
       </c>
       <c r="N81" s="13">
@@ -9584,27 +9584,27 @@
       <c r="Q81" s="61"/>
       <c r="R81" s="61"/>
       <c r="T81" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:26:59-0600',mode:absolute,to:'2016-05-25 13:06:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="73" t="str">
-        <f>IF(Y81&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V81" s="73">
-        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W81" s="73">
-        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X81" s="73">
-        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y81" s="73">
-        <f>ABS(X81-W81)</f>
+        <f t="shared" si="38"/>
         <v>23.285</v>
       </c>
       <c r="Z81" s="74" t="e">
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="60" t="str">
-        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
+        <f t="shared" si="31"/>
         <v>4039/4040</v>
       </c>
       <c r="L82" s="60" t="str">
@@ -9656,7 +9656,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M82" s="12">
-        <f>I82-F82</f>
+        <f t="shared" si="32"/>
         <v>3.8240740745095536E-2</v>
       </c>
       <c r="N82" s="13">
@@ -9668,27 +9668,27 @@
       <c r="Q82" s="61"/>
       <c r="R82" s="61"/>
       <c r="T82" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:14:21-0600',mode:absolute,to:'2016-05-25 14:12:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="73" t="str">
-        <f>IF(Y82&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V82" s="73">
-        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W82" s="73">
-        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X82" s="73">
-        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y82" s="73">
-        <f>ABS(X82-W82)</f>
+        <f t="shared" si="38"/>
         <v>23.283299999999997</v>
       </c>
       <c r="Z82" s="74" t="e">
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="60" t="str">
-        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
+        <f t="shared" si="31"/>
         <v>4037/4038</v>
       </c>
       <c r="L83" s="60" t="str">
@@ -9740,13 +9740,13 @@
         <v>YOUNG</v>
       </c>
       <c r="M83" s="12">
-        <f>I83-F83</f>
+        <f t="shared" si="32"/>
         <v>6.180555559694767E-3</v>
       </c>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
       <c r="P83" s="13">
-        <f>24*60*SUM($M83:$M83)+1</f>
+        <f t="shared" ref="P83:P90" si="39">24*60*SUM($M83:$M83)+1</f>
         <v>9.9000000059604645</v>
       </c>
       <c r="Q83" s="61" t="s">
@@ -9756,27 +9756,27 @@
         <v>601</v>
       </c>
       <c r="T83" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:38:48-0600',mode:absolute,to:'2016-05-25 12:51:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="73" t="str">
-        <f>IF(Y83&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V83" s="73">
-        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W83" s="73">
-        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X83" s="73">
-        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.9137</v>
       </c>
       <c r="Y83" s="73">
-        <f>ABS(X83-W83)</f>
+        <f t="shared" si="38"/>
         <v>1.8691</v>
       </c>
       <c r="Z83" s="74" t="e">
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="60" t="str">
-        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
+        <f t="shared" si="31"/>
         <v>4037/4038</v>
       </c>
       <c r="L84" s="60" t="str">
@@ -9828,13 +9828,13 @@
         <v>YOUNG</v>
       </c>
       <c r="M84" s="12">
-        <f>I84-F84</f>
+        <f t="shared" si="32"/>
         <v>2.5694444484543055E-3</v>
       </c>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
       <c r="P84" s="13">
-        <f>24*60*SUM($M84:$M84)+1</f>
+        <f t="shared" si="39"/>
         <v>4.7000000057742</v>
       </c>
       <c r="Q84" s="61" t="s">
@@ -9844,27 +9844,27 @@
         <v>601</v>
       </c>
       <c r="T84" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:33:41-0600',mode:absolute,to:'2016-05-25 13:40:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="73" t="str">
-        <f>IF(Y84&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V84" s="73">
-        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W84" s="73">
-        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X84" s="73">
-        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.299099999999999</v>
       </c>
       <c r="Y84" s="73">
-        <f>ABS(X84-W84)</f>
+        <f t="shared" si="38"/>
         <v>2.9999999999930083E-4</v>
       </c>
       <c r="Z84" s="74" t="e">
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="60" t="str">
-        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" si="31"/>
         <v>4029/4030</v>
       </c>
       <c r="L85" s="60" t="str">
@@ -9916,13 +9916,13 @@
         <v>LOZA</v>
       </c>
       <c r="M85" s="12">
-        <f>I85-F85</f>
+        <f t="shared" si="32"/>
         <v>1.1458333319751546E-3</v>
       </c>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
       <c r="P85" s="13">
-        <f>24*60*SUM($M85:$M85)+1</f>
+        <f t="shared" si="39"/>
         <v>2.6499999980442226</v>
       </c>
       <c r="Q85" s="61" t="s">
@@ -9932,27 +9932,27 @@
         <v>601</v>
       </c>
       <c r="T85" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 12:57:44-0600',mode:absolute,to:'2016-05-25 13:02:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="73" t="str">
-        <f>IF(Y85&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V85" s="73">
-        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W85" s="73">
-        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X85" s="73">
-        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>0.15060000000000001</v>
       </c>
       <c r="Y85" s="73">
-        <f>ABS(X85-W85)</f>
+        <f t="shared" si="38"/>
         <v>0.10510000000000001</v>
       </c>
       <c r="Z85" s="74" t="e">
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="60" t="str">
-        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
+        <f t="shared" si="31"/>
         <v>4029/4030</v>
       </c>
       <c r="L86" s="60" t="str">
@@ -10004,13 +10004,13 @@
         <v>LOZA</v>
       </c>
       <c r="M86" s="12">
-        <f>I86-F86</f>
+        <f t="shared" si="32"/>
         <v>1.2210648143081926E-2</v>
       </c>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
       <c r="P86" s="13">
-        <f>24*60*SUM($M86:$M86)+1</f>
+        <f t="shared" si="39"/>
         <v>18.583333326037973</v>
       </c>
       <c r="Q86" s="61" t="s">
@@ -10020,27 +10020,27 @@
         <v>601</v>
       </c>
       <c r="T86" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:53:05-0600',mode:absolute,to:'2016-05-25 14:14:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="73" t="str">
-        <f>IF(Y86&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V86" s="73">
-        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W86" s="73">
-        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.3</v>
       </c>
       <c r="X86" s="73">
-        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>12.787699999999999</v>
       </c>
       <c r="Y86" s="73">
-        <f>ABS(X86-W86)</f>
+        <f t="shared" si="38"/>
         <v>10.512300000000002</v>
       </c>
       <c r="Z86" s="74" t="e">
@@ -10084,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="60" t="str">
-        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
+        <f t="shared" si="31"/>
         <v>4031/4032</v>
       </c>
       <c r="L87" s="60" t="str">
@@ -10092,13 +10092,13 @@
         <v>YORK</v>
       </c>
       <c r="M87" s="12">
-        <f>I87-F87</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
       <c r="P87" s="13">
-        <f>24*60*SUM($M87:$M87)+1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Q87" s="61" t="s">
@@ -10108,27 +10108,27 @@
         <v>601</v>
       </c>
       <c r="T87" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:10:24-0600',mode:absolute,to:'2016-05-25 13:14:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="73" t="str">
-        <f>IF(Y87&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V87" s="73">
-        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W87" s="73">
-        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X87" s="73">
-        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="Y87" s="73">
-        <f>ABS(X87-W87)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z87" s="74" t="e">
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="60" t="str">
-        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
+        <f t="shared" si="31"/>
         <v>4031/4032</v>
       </c>
       <c r="L88" s="60" t="str">
@@ -10180,13 +10180,13 @@
         <v>YORK</v>
       </c>
       <c r="M88" s="12">
-        <f>I88-F88</f>
+        <f t="shared" si="32"/>
         <v>1.273148154723458E-4</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
       <c r="P88" s="13">
-        <f>24*60*SUM($M88:$M88)+1</f>
+        <f t="shared" si="39"/>
         <v>1.183333334280178</v>
       </c>
       <c r="Q88" s="61" t="s">
@@ -10196,27 +10196,27 @@
         <v>601</v>
       </c>
       <c r="T88" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:06:38-0600',mode:absolute,to:'2016-05-25 14:10:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="73" t="str">
-        <f>IF(Y88&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V88" s="73">
-        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W88" s="73">
-        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.2989</v>
       </c>
       <c r="X88" s="73">
-        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.299099999999999</v>
       </c>
       <c r="Y88" s="73">
-        <f>ABS(X88-W88)</f>
+        <f t="shared" si="38"/>
         <v>1.9999999999953388E-4</v>
       </c>
       <c r="Z88" s="74" t="e">
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="60" t="str">
-        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
+        <f t="shared" si="31"/>
         <v>4009/4010</v>
       </c>
       <c r="L89" s="60" t="str">
@@ -10268,13 +10268,13 @@
         <v>BUTLER</v>
       </c>
       <c r="M89" s="12">
-        <f>I89-F89</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
       <c r="P89" s="13">
-        <f>24*60*SUM($M89:$M89)+1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Q89" s="61" t="s">
@@ -10284,27 +10284,27 @@
         <v>601</v>
       </c>
       <c r="T89" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:22:10-0600',mode:absolute,to:'2016-05-25 13:26:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="73" t="str">
-        <f>IF(Y89&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V89" s="73">
-        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W89" s="73">
-        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X89" s="73">
-        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="Y89" s="73">
-        <f>ABS(X89-W89)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z89" s="74" t="e">
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="60" t="str">
-        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
+        <f t="shared" si="31"/>
         <v>4009/4010</v>
       </c>
       <c r="L90" s="60" t="str">
@@ -10356,13 +10356,13 @@
         <v>BUTLER</v>
       </c>
       <c r="M90" s="12">
-        <f>I90-F90</f>
+        <f t="shared" si="32"/>
         <v>1.0416666918899864E-4</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
       <c r="P90" s="13">
-        <f>24*60*SUM($M90:$M90)+1</f>
+        <f t="shared" si="39"/>
         <v>1.150000003632158</v>
       </c>
       <c r="Q90" s="61" t="s">
@@ -10372,27 +10372,27 @@
         <v>601</v>
       </c>
       <c r="T90" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:13:33-0600',mode:absolute,to:'2016-05-25 14:17:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="73" t="str">
-        <f>IF(Y90&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V90" s="73">
-        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W90" s="73">
-        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X90" s="73">
-        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.2986</v>
       </c>
       <c r="Y90" s="73">
-        <f>ABS(X90-W90)</f>
+        <f t="shared" si="38"/>
         <v>3.9999999999906777E-4</v>
       </c>
       <c r="Z90" s="74" t="e">
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="60" t="str">
-        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
+        <f t="shared" si="31"/>
         <v>4027/4028</v>
       </c>
       <c r="L91" s="60" t="str">
@@ -10444,7 +10444,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M91" s="12">
-        <f>I91-F91</f>
+        <f t="shared" si="32"/>
         <v>3.0138888891087845E-2</v>
       </c>
       <c r="N91" s="13">
@@ -10456,27 +10456,27 @@
       <c r="Q91" s="61"/>
       <c r="R91" s="61"/>
       <c r="T91" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 13:52:20-0600',mode:absolute,to:'2016-05-25 14:38:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="73" t="str">
-        <f>IF(Y91&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V91" s="73">
-        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W91" s="73">
-        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="X91" s="73">
-        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.331700000000001</v>
       </c>
       <c r="Y91" s="73">
-        <f>ABS(X91-W91)</f>
+        <f t="shared" si="38"/>
         <v>23.282200000000003</v>
       </c>
       <c r="Z91" s="74">
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="60" t="str">
-        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
+        <f t="shared" si="31"/>
         <v>4027/4028</v>
       </c>
       <c r="L92" s="60" t="str">
@@ -10528,7 +10528,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M92" s="12">
-        <f>I92-F92</f>
+        <f t="shared" si="32"/>
         <v>3.2789351855171844E-2</v>
       </c>
       <c r="N92" s="13">
@@ -10540,27 +10540,27 @@
       <c r="Q92" s="61"/>
       <c r="R92" s="61"/>
       <c r="T92" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:41:21-0600',mode:absolute,to:'2016-05-25 15:32:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="73" t="str">
-        <f>IF(Y92&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V92" s="73">
-        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W92" s="73">
-        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.300799999999999</v>
       </c>
       <c r="X92" s="73">
-        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y92" s="73">
-        <f>ABS(X92-W92)</f>
+        <f t="shared" si="38"/>
         <v>23.2867</v>
       </c>
       <c r="Z92" s="74" t="e">
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="60" t="str">
-        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
+        <f t="shared" si="31"/>
         <v>4019/4020</v>
       </c>
       <c r="L93" s="60" t="str">
@@ -10612,7 +10612,7 @@
         <v>STEWART</v>
       </c>
       <c r="M93" s="12">
-        <f>I93-F93</f>
+        <f t="shared" si="32"/>
         <v>1.6203703708015382E-3</v>
       </c>
       <c r="N93" s="13"/>
@@ -10628,27 +10628,27 @@
         <v>601</v>
       </c>
       <c r="T93" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:09:43-0600',mode:absolute,to:'2016-05-25 14:15:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="73" t="str">
-        <f>IF(Y93&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V93" s="73">
-        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W93" s="73">
-        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.58E-2</v>
       </c>
       <c r="X93" s="73">
-        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="Y93" s="73">
-        <f>ABS(X93-W93)</f>
+        <f t="shared" si="38"/>
         <v>5.6199999999999993E-2</v>
       </c>
       <c r="Z93" s="74" t="e">
@@ -10692,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="60" t="str">
-        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
+        <f t="shared" si="31"/>
         <v>4019/4020</v>
       </c>
       <c r="L94" s="60" t="str">
@@ -10700,7 +10700,7 @@
         <v>STEWART</v>
       </c>
       <c r="M94" s="12">
-        <f>I94-F94</f>
+        <f t="shared" si="32"/>
         <v>3.0972222222771961E-2</v>
       </c>
       <c r="N94" s="13">
@@ -10712,27 +10712,27 @@
       <c r="Q94" s="61"/>
       <c r="R94" s="61"/>
       <c r="T94" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:51:25-0600',mode:absolute,to:'2016-05-25 15:39:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="73" t="str">
-        <f>IF(Y94&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V94" s="73">
-        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W94" s="73">
-        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.3</v>
       </c>
       <c r="X94" s="73">
-        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y94" s="73">
-        <f>ABS(X94-W94)</f>
+        <f t="shared" si="38"/>
         <v>23.285900000000002</v>
       </c>
       <c r="Z94" s="74">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="60" t="str">
-        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
+        <f t="shared" si="31"/>
         <v>4039/4040</v>
       </c>
       <c r="L95" s="60" t="str">
@@ -10784,7 +10784,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M95" s="12">
-        <f>I95-F95</f>
+        <f t="shared" si="32"/>
         <v>3.217592593136942E-2</v>
       </c>
       <c r="N95" s="13">
@@ -10796,27 +10796,27 @@
       <c r="Q95" s="61"/>
       <c r="R95" s="61"/>
       <c r="T95" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:12:52-0600',mode:absolute,to:'2016-05-25 15:02:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="73" t="str">
-        <f>IF(Y95&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V95" s="73">
-        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W95" s="73">
-        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X95" s="73">
-        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y95" s="73">
-        <f>ABS(X95-W95)</f>
+        <f t="shared" si="38"/>
         <v>23.2851</v>
       </c>
       <c r="Z95" s="74" t="e">
@@ -10860,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="60" t="str">
-        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
+        <f t="shared" si="31"/>
         <v>4039/4040</v>
       </c>
       <c r="L96" s="60" t="str">
@@ -10868,7 +10868,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M96" s="12">
-        <f>I96-F96</f>
+        <f t="shared" si="32"/>
         <v>2.8495370366727002E-2</v>
       </c>
       <c r="N96" s="13">
@@ -10880,27 +10880,27 @@
       <c r="Q96" s="61"/>
       <c r="R96" s="61"/>
       <c r="T96" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:06:03-0600',mode:absolute,to:'2016-05-25 15:50:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="73" t="str">
-        <f>IF(Y96&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V96" s="73">
-        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W96" s="73">
-        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X96" s="73">
-        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>0.02</v>
       </c>
       <c r="Y96" s="73">
-        <f>ABS(X96-W96)</f>
+        <f t="shared" si="38"/>
         <v>23.279600000000002</v>
       </c>
       <c r="Z96" s="74">
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="60" t="str">
-        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
+        <f t="shared" si="31"/>
         <v>4037/4038</v>
       </c>
       <c r="L97" s="60" t="str">
@@ -10952,7 +10952,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M97" s="12">
-        <f>I97-F97</f>
+        <f t="shared" si="32"/>
         <v>1.4699074090458453E-3</v>
       </c>
       <c r="N97" s="13"/>
@@ -10968,27 +10968,27 @@
         <v>601</v>
       </c>
       <c r="T97" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:27:51-0600',mode:absolute,to:'2016-05-25 14:33:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="73" t="str">
-        <f>IF(Y97&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V97" s="73">
-        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W97" s="73">
-        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X97" s="73">
-        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>0.14219999999999999</v>
       </c>
       <c r="Y97" s="73">
-        <f>ABS(X97-W97)</f>
+        <f t="shared" si="38"/>
         <v>9.5599999999999991E-2</v>
       </c>
       <c r="Z97" s="74" t="e">
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="60" t="str">
-        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
+        <f t="shared" si="31"/>
         <v>4037/4038</v>
       </c>
       <c r="L98" s="60" t="str">
@@ -11040,7 +11040,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M98" s="12">
-        <f>I98-F98</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N98" s="13"/>
@@ -11056,27 +11056,27 @@
         <v>607</v>
       </c>
       <c r="T98" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:19:41-0600',mode:absolute,to:'2016-05-25 15:23:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="73" t="str">
-        <f>IF(Y98&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V98" s="73">
-        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W98" s="73">
-        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.296700000000001</v>
       </c>
       <c r="X98" s="73">
-        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.296700000000001</v>
       </c>
       <c r="Y98" s="73">
-        <f>ABS(X98-W98)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z98" s="74" t="e">
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="60" t="str">
-        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
+        <f t="shared" si="31"/>
         <v>4037/4038</v>
       </c>
       <c r="L99" s="60" t="str">
@@ -11128,7 +11128,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M99" s="12">
-        <f>I99-F99</f>
+        <f t="shared" si="32"/>
         <v>3.2870370414457284E-3</v>
       </c>
       <c r="N99" s="13"/>
@@ -11137,27 +11137,27 @@
       <c r="Q99" s="61"/>
       <c r="R99" s="61"/>
       <c r="T99" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:13:48-0600',mode:absolute,to:'2016-05-25 15:21:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="73" t="str">
-        <f>IF(Y99&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V99" s="73">
-        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W99" s="73">
-        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X99" s="73">
-        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.2971</v>
       </c>
       <c r="Y99" s="73">
-        <f>ABS(X99-W99)</f>
+        <f t="shared" si="38"/>
         <v>8.9999999999790248E-4</v>
       </c>
       <c r="Z99" s="74" t="e">
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="60" t="str">
-        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
+        <f t="shared" si="31"/>
         <v>4029/4030</v>
       </c>
       <c r="L100" s="60" t="str">
@@ -11209,7 +11209,7 @@
         <v>LOZA</v>
       </c>
       <c r="M100" s="12">
-        <f>I100-F100</f>
+        <f t="shared" si="32"/>
         <v>5.3935185133013874E-3</v>
       </c>
       <c r="N100" s="13"/>
@@ -11225,27 +11225,27 @@
         <v>601</v>
       </c>
       <c r="T100" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:40:21-0600',mode:absolute,to:'2016-05-25 14:51:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="73" t="str">
-        <f>IF(Y100&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V100" s="73">
-        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W100" s="73">
-        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X100" s="73">
-        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.9115</v>
       </c>
       <c r="Y100" s="73">
-        <f>ABS(X100-W100)</f>
+        <f t="shared" si="38"/>
         <v>1.8669</v>
       </c>
       <c r="Z100" s="74" t="e">
@@ -11289,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="60" t="str">
-        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
+        <f t="shared" si="31"/>
         <v>4029/4030</v>
       </c>
       <c r="L101" s="60" t="str">
@@ -11297,7 +11297,7 @@
         <v>LOZA</v>
       </c>
       <c r="M101" s="12">
-        <f>I101-F101</f>
+        <f t="shared" si="32"/>
         <v>3.1712962962046731E-2</v>
       </c>
       <c r="N101" s="13">
@@ -11309,27 +11309,27 @@
       <c r="Q101" s="61"/>
       <c r="R101" s="61"/>
       <c r="T101" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:34:10-0600',mode:absolute,to:'2016-05-25 16:23:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="73" t="str">
-        <f>IF(Y101&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V101" s="73">
-        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W101" s="73">
-        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.302700000000002</v>
       </c>
       <c r="X101" s="73">
-        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y101" s="73">
-        <f>ABS(X101-W101)</f>
+        <f t="shared" si="38"/>
         <v>23.288600000000002</v>
       </c>
       <c r="Z101" s="74">
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="60" t="str">
-        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" si="31"/>
         <v>4031/4032</v>
       </c>
       <c r="L102" s="60" t="str">
@@ -11381,7 +11381,7 @@
         <v>YORK</v>
       </c>
       <c r="M102" s="12">
-        <f>I102-F102</f>
+        <f t="shared" si="32"/>
         <v>3.0671296262880787E-3</v>
       </c>
       <c r="N102" s="13"/>
@@ -11397,27 +11397,27 @@
         <v>599</v>
       </c>
       <c r="T102" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 14:51:31-0600',mode:absolute,to:'2016-05-25 14:59:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="73" t="str">
-        <f>IF(Y102&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>Y</v>
       </c>
       <c r="V102" s="73">
-        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W102" s="73">
-        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="X102" s="73">
-        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="Y102" s="73">
-        <f>ABS(X102-W102)</f>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="Z102" s="74" t="e">
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="60" t="str">
-        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" si="31"/>
         <v>4031/4032</v>
       </c>
       <c r="L103" s="60" t="str">
@@ -11469,11 +11469,11 @@
         <v>YORK</v>
       </c>
       <c r="M103" s="12">
-        <f>I103-F103</f>
+        <f t="shared" si="32"/>
         <v>2.8935185182490386E-2</v>
       </c>
       <c r="N103" s="13">
-        <f>24*60*SUM($M103:$M103)</f>
+        <f t="shared" ref="N103:N111" si="40">24*60*SUM($M103:$M103)</f>
         <v>41.666666662786156</v>
       </c>
       <c r="O103" s="13"/>
@@ -11481,27 +11481,27 @@
       <c r="Q103" s="61"/>
       <c r="R103" s="61"/>
       <c r="T103" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:50:31-0600',mode:absolute,to:'2016-05-25 16:35:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="73" t="str">
-        <f>IF(Y103&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V103" s="73">
-        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W103" s="73">
-        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.2988</v>
       </c>
       <c r="X103" s="73">
-        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y103" s="73">
-        <f>ABS(X103-W103)</f>
+        <f t="shared" si="38"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z103" s="74" t="e">
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="60" t="str">
-        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
+        <f t="shared" si="31"/>
         <v>4009/4010</v>
       </c>
       <c r="L104" s="60" t="str">
@@ -11553,11 +11553,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M104" s="12">
-        <f>I104-F104</f>
+        <f t="shared" si="32"/>
         <v>2.9618055552418809E-2</v>
       </c>
       <c r="N104" s="13">
-        <f>24*60*SUM($M104:$M104)</f>
+        <f t="shared" si="40"/>
         <v>42.649999995483086</v>
       </c>
       <c r="O104" s="13"/>
@@ -11565,27 +11565,27 @@
       <c r="Q104" s="61"/>
       <c r="R104" s="61"/>
       <c r="T104" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:04:46-0600',mode:absolute,to:'2016-05-25 15:51:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="73" t="str">
-        <f>IF(Y104&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V104" s="73">
-        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W104" s="73">
-        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X104" s="73">
-        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.3306</v>
       </c>
       <c r="Y104" s="73">
-        <f>ABS(X104-W104)</f>
+        <f t="shared" si="38"/>
         <v>23.2864</v>
       </c>
       <c r="Z104" s="74">
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="60" t="str">
-        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
+        <f t="shared" si="31"/>
         <v>4009/4010</v>
       </c>
       <c r="L105" s="60" t="str">
@@ -11637,11 +11637,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M105" s="12">
-        <f>I105-F105</f>
+        <f t="shared" si="32"/>
         <v>3.5254629627161194E-2</v>
       </c>
       <c r="N105" s="13">
-        <f>24*60*SUM($M105:$M105)</f>
+        <f t="shared" si="40"/>
         <v>50.766666663112119</v>
       </c>
       <c r="O105" s="13"/>
@@ -11649,27 +11649,27 @@
       <c r="Q105" s="61"/>
       <c r="R105" s="61"/>
       <c r="T105" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:53:32-0600',mode:absolute,to:'2016-05-25 16:48:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="73" t="str">
-        <f>IF(Y105&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V105" s="73">
-        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W105" s="73">
-        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X105" s="73">
-        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y105" s="73">
-        <f>ABS(X105-W105)</f>
+        <f t="shared" si="38"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z105" s="74" t="e">
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="60" t="str">
-        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
+        <f t="shared" si="31"/>
         <v>4027/4028</v>
       </c>
       <c r="L106" s="60" t="str">
@@ -11721,11 +11721,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M106" s="12">
-        <f>I106-F106</f>
+        <f t="shared" si="32"/>
         <v>2.7280092595901806E-2</v>
       </c>
       <c r="N106" s="13">
-        <f>24*60*SUM($M106:$M106)</f>
+        <f t="shared" si="40"/>
         <v>39.283333338098601</v>
       </c>
       <c r="O106" s="13"/>
@@ -11733,27 +11733,27 @@
       <c r="Q106" s="61"/>
       <c r="R106" s="61"/>
       <c r="T106" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:35:02-0600',mode:absolute,to:'2016-05-25 16:18:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="73" t="str">
-        <f>IF(Y106&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V106" s="73">
-        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W106" s="73">
-        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X106" s="73">
-        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.331600000000002</v>
       </c>
       <c r="Y106" s="73">
-        <f>ABS(X106-W106)</f>
+        <f t="shared" si="38"/>
         <v>23.286700000000003</v>
       </c>
       <c r="Z106" s="74" t="e">
@@ -11797,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="60" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="31"/>
         <v>4027/4028</v>
       </c>
       <c r="L107" s="60" t="str">
@@ -11805,11 +11805,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M107" s="12">
-        <f>I107-F107</f>
+        <f t="shared" si="32"/>
         <v>2.6921296295768116E-2</v>
       </c>
       <c r="N107" s="13">
-        <f>24*60*SUM($M107:$M107)</f>
+        <f t="shared" si="40"/>
         <v>38.766666665906087</v>
       </c>
       <c r="O107" s="13"/>
@@ -11817,27 +11817,27 @@
       <c r="Q107" s="61"/>
       <c r="R107" s="61"/>
       <c r="T107" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:22:46-0600',mode:absolute,to:'2016-05-25 17:04:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="73" t="str">
-        <f>IF(Y107&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V107" s="73">
-        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W107" s="73">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.298200000000001</v>
       </c>
       <c r="X107" s="73">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y107" s="73">
-        <f>ABS(X107-W107)</f>
+        <f t="shared" si="38"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z107" s="74">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="60" t="str">
-        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
+        <f t="shared" si="31"/>
         <v>4019/4020</v>
       </c>
       <c r="L108" s="60" t="str">
@@ -11889,11 +11889,11 @@
         <v>STEWART</v>
       </c>
       <c r="M108" s="12">
-        <f>I108-F108</f>
+        <f t="shared" si="32"/>
         <v>2.6597222218697425E-2</v>
       </c>
       <c r="N108" s="13">
-        <f>24*60*SUM($M108:$M108)</f>
+        <f t="shared" si="40"/>
         <v>38.299999994924292</v>
       </c>
       <c r="O108" s="13"/>
@@ -11901,27 +11901,27 @@
       <c r="Q108" s="61"/>
       <c r="R108" s="61"/>
       <c r="T108" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="33"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:41:20-0600',mode:absolute,to:'2016-05-25 16:23:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="73" t="str">
-        <f>IF(Y108&lt;23,"Y","N")</f>
+        <f t="shared" si="34"/>
         <v>N</v>
       </c>
       <c r="V108" s="73">
-        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W108" s="73">
-        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X108" s="73">
-        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
+        <f t="shared" si="37"/>
         <v>23.320399999999999</v>
       </c>
       <c r="Y108" s="73">
-        <f>ABS(X108-W108)</f>
+        <f t="shared" si="38"/>
         <v>23.275500000000001</v>
       </c>
       <c r="Z108" s="74">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="60" t="str">
-        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
+        <f t="shared" ref="K109:K140" si="41">IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L109" s="60" t="str">
@@ -11973,11 +11973,11 @@
         <v>STEWART</v>
       </c>
       <c r="M109" s="12">
-        <f>I109-F109</f>
+        <f t="shared" ref="M109:M140" si="42">I109-F109</f>
         <v>2.8969907405553386E-2</v>
       </c>
       <c r="N109" s="13">
-        <f>24*60*SUM($M109:$M109)</f>
+        <f t="shared" si="40"/>
         <v>41.716666663996875</v>
       </c>
       <c r="O109" s="13"/>
@@ -11985,27 +11985,27 @@
       <c r="Q109" s="61"/>
       <c r="R109" s="61"/>
       <c r="T109" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T109:T140" si="43">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:35:03-0600',mode:absolute,to:'2016-05-25 17:20:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="73" t="str">
-        <f>IF(Y109&lt;23,"Y","N")</f>
+        <f t="shared" ref="U109:U140" si="44">IF(Y109&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V109" s="73">
-        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
+        <f t="shared" ref="V109:V140" si="45">VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
         <v>1</v>
       </c>
       <c r="W109" s="73">
-        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
+        <f t="shared" ref="W109:W140" si="46">RIGHT(D109,LEN(D109)-4)/10000</f>
         <v>23.288900000000002</v>
       </c>
       <c r="X109" s="73">
-        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
+        <f t="shared" ref="X109:X140" si="47">RIGHT(H109,LEN(H109)-4)/10000</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Y109" s="73">
-        <f>ABS(X109-W109)</f>
+        <f t="shared" ref="Y109:Y140" si="48">ABS(X109-W109)</f>
         <v>23.2759</v>
       </c>
       <c r="Z109" s="74" t="e">
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="60" t="str">
-        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
+        <f t="shared" si="41"/>
         <v>4039/4040</v>
       </c>
       <c r="L110" s="60" t="str">
@@ -12057,11 +12057,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M110" s="12">
-        <f>I110-F110</f>
+        <f t="shared" si="42"/>
         <v>2.8206018519995268E-2</v>
       </c>
       <c r="N110" s="13">
-        <f>24*60*SUM($M110:$M110)</f>
+        <f t="shared" si="40"/>
         <v>40.616666668793187</v>
       </c>
       <c r="O110" s="13"/>
@@ -12069,27 +12069,27 @@
       <c r="Q110" s="61"/>
       <c r="R110" s="61"/>
       <c r="T110" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 15:52:01-0600',mode:absolute,to:'2016-05-25 16:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="73" t="str">
-        <f>IF(Y110&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V110" s="73">
-        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W110" s="73">
-        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="X110" s="73">
-        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.3291</v>
       </c>
       <c r="Y110" s="73">
-        <f>ABS(X110-W110)</f>
+        <f t="shared" si="48"/>
         <v>23.278200000000002</v>
       </c>
       <c r="Z110" s="74" t="e">
@@ -12133,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="60" t="str">
-        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
+        <f t="shared" si="41"/>
         <v>4039/4040</v>
       </c>
       <c r="L111" s="60" t="str">
@@ -12141,11 +12141,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M111" s="12">
-        <f>I111-F111</f>
+        <f t="shared" si="42"/>
         <v>2.7847222227137536E-2</v>
       </c>
       <c r="N111" s="13">
-        <f>24*60*SUM($M111:$M111)</f>
+        <f t="shared" si="40"/>
         <v>40.100000007078052</v>
       </c>
       <c r="O111" s="13"/>
@@ -12153,27 +12153,27 @@
       <c r="Q111" s="61"/>
       <c r="R111" s="61"/>
       <c r="T111" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:50:51-0600',mode:absolute,to:'2016-05-25 17:34:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="73" t="str">
-        <f>IF(Y111&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V111" s="73">
-        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W111" s="73">
-        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X111" s="73">
-        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y111" s="73">
-        <f>ABS(X111-W111)</f>
+        <f t="shared" si="48"/>
         <v>23.283099999999997</v>
       </c>
       <c r="Z111" s="74">
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="60" t="str">
-        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
+        <f t="shared" si="41"/>
         <v>4037/4038</v>
       </c>
       <c r="L112" s="60" t="str">
@@ -12225,7 +12225,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M112" s="12">
-        <f>I112-F112</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N112" s="13"/>
@@ -12241,27 +12241,27 @@
         <v>600</v>
       </c>
       <c r="T112" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:07:25-0600',mode:absolute,to:'2016-05-25 16:12:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="73" t="str">
-        <f>IF(Y112&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>Y</v>
       </c>
       <c r="V112" s="73">
-        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W112" s="73">
-        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.58E-2</v>
       </c>
       <c r="X112" s="73">
-        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>4.58E-2</v>
       </c>
       <c r="Y112" s="73">
-        <f>ABS(X112-W112)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z112" s="74" t="e">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="60" t="str">
-        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
+        <f t="shared" si="41"/>
         <v>4037/4038</v>
       </c>
       <c r="L113" s="60" t="str">
@@ -12313,7 +12313,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M113" s="12">
-        <f>I113-F113</f>
+        <f t="shared" si="42"/>
         <v>3.819444464170374E-4</v>
       </c>
       <c r="N113" s="13"/>
@@ -12329,27 +12329,27 @@
         <v>600</v>
       </c>
       <c r="T113" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:01:44-0600',mode:absolute,to:'2016-05-25 17:06:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="73" t="str">
-        <f>IF(Y113&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>Y</v>
       </c>
       <c r="V113" s="73">
-        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W113" s="73">
-        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X113" s="73">
-        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.298500000000001</v>
       </c>
       <c r="Y113" s="73">
-        <f>ABS(X113-W113)</f>
+        <f t="shared" si="48"/>
         <v>8.9999999999790248E-4</v>
       </c>
       <c r="Z113" s="74" t="e">
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="60" t="str">
-        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
+        <f t="shared" si="41"/>
         <v>4029/4030</v>
       </c>
       <c r="L114" s="60" t="str">
@@ -12401,11 +12401,11 @@
         <v>LOZA</v>
       </c>
       <c r="M114" s="12">
-        <f>I114-F114</f>
+        <f t="shared" si="42"/>
         <v>2.8055555558239575E-2</v>
       </c>
       <c r="N114" s="13">
-        <f>24*60*SUM($M114:$M114)</f>
+        <f t="shared" ref="N114:N147" si="49">24*60*SUM($M114:$M114)</f>
         <v>40.400000003864989</v>
       </c>
       <c r="O114" s="13"/>
@@ -12413,27 +12413,27 @@
       <c r="Q114" s="61"/>
       <c r="R114" s="61"/>
       <c r="T114" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:24:24-0600',mode:absolute,to:'2016-05-25 17:08:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="73" t="str">
-        <f>IF(Y114&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V114" s="73">
-        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W114" s="73">
-        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X114" s="73">
-        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.3322</v>
       </c>
       <c r="Y114" s="73">
-        <f>ABS(X114-W114)</f>
+        <f t="shared" si="48"/>
         <v>23.288</v>
       </c>
       <c r="Z114" s="74" t="e">
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="60" t="str">
-        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
+        <f t="shared" si="41"/>
         <v>4029/4030</v>
       </c>
       <c r="L115" s="60" t="str">
@@ -12485,11 +12485,11 @@
         <v>LOZA</v>
       </c>
       <c r="M115" s="12">
-        <f>I115-F115</f>
+        <f t="shared" si="42"/>
         <v>3.422453704115469E-2</v>
       </c>
       <c r="N115" s="13">
-        <f>24*60*SUM($M115:$M115)</f>
+        <f t="shared" si="49"/>
         <v>49.283333339262754</v>
       </c>
       <c r="O115" s="13"/>
@@ -12497,27 +12497,27 @@
       <c r="Q115" s="61"/>
       <c r="R115" s="61"/>
       <c r="T115" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:13:33-0600',mode:absolute,to:'2016-05-25 18:06:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="73" t="str">
-        <f>IF(Y115&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V115" s="73">
-        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W115" s="73">
-        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.300699999999999</v>
       </c>
       <c r="X115" s="73">
-        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y115" s="73">
-        <f>ABS(X115-W115)</f>
+        <f t="shared" si="48"/>
         <v>23.285999999999998</v>
       </c>
       <c r="Z115" s="74" t="e">
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="60" t="str">
-        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
+        <f t="shared" si="41"/>
         <v>4031/4032</v>
       </c>
       <c r="L116" s="60" t="str">
@@ -12569,11 +12569,11 @@
         <v>BONDS</v>
       </c>
       <c r="M116" s="12">
-        <f>I116-F116</f>
+        <f t="shared" si="42"/>
         <v>2.976851852145046E-2</v>
       </c>
       <c r="N116" s="13">
-        <f>24*60*SUM($M116:$M116)</f>
+        <f t="shared" si="49"/>
         <v>42.866666670888662</v>
       </c>
       <c r="O116" s="13"/>
@@ -12581,27 +12581,27 @@
       <c r="Q116" s="61"/>
       <c r="R116" s="61"/>
       <c r="T116" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:35:32-0600',mode:absolute,to:'2016-05-25 17:21:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="73" t="str">
-        <f>IF(Y116&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V116" s="73">
-        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W116" s="73">
-        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X116" s="73">
-        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.333100000000002</v>
       </c>
       <c r="Y116" s="73">
-        <f>ABS(X116-W116)</f>
+        <f t="shared" si="48"/>
         <v>23.286700000000003</v>
       </c>
       <c r="Z116" s="74" t="e">
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="60" t="str">
-        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
+        <f t="shared" si="41"/>
         <v>4031/4032</v>
       </c>
       <c r="L117" s="60" t="str">
@@ -12653,11 +12653,11 @@
         <v>BONDS</v>
       </c>
       <c r="M117" s="12">
-        <f>I117-F117</f>
+        <f t="shared" si="42"/>
         <v>3.107638889196096E-2</v>
       </c>
       <c r="N117" s="13">
-        <f>24*60*SUM($M117:$M117)</f>
+        <f t="shared" si="49"/>
         <v>44.750000004423782</v>
       </c>
       <c r="O117" s="13"/>
@@ -12665,27 +12665,27 @@
       <c r="Q117" s="61"/>
       <c r="R117" s="61"/>
       <c r="T117" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:34:17-0600',mode:absolute,to:'2016-05-25 18:22:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="73" t="str">
-        <f>IF(Y117&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V117" s="73">
-        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W117" s="73">
-        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.301500000000001</v>
       </c>
       <c r="X117" s="73">
-        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y117" s="73">
-        <f>ABS(X117-W117)</f>
+        <f t="shared" si="48"/>
         <v>23.2881</v>
       </c>
       <c r="Z117" s="74">
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="60" t="str">
-        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
+        <f t="shared" si="41"/>
         <v>4009/4010</v>
       </c>
       <c r="L118" s="60" t="str">
@@ -12737,11 +12737,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M118" s="12">
-        <f>I118-F118</f>
+        <f t="shared" si="42"/>
         <v>3.0138888891087845E-2</v>
       </c>
       <c r="N118" s="13">
-        <f>24*60*SUM($M118:$M118)</f>
+        <f t="shared" si="49"/>
         <v>43.400000003166497</v>
       </c>
       <c r="O118" s="13"/>
@@ -12749,27 +12749,27 @@
       <c r="Q118" s="61"/>
       <c r="R118" s="61"/>
       <c r="T118" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 16:49:11-0600',mode:absolute,to:'2016-05-25 17:36:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="73" t="str">
-        <f>IF(Y118&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V118" s="73">
-        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W118" s="73">
-        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.58E-2</v>
       </c>
       <c r="X118" s="73">
-        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y118" s="73">
-        <f>ABS(X118-W118)</f>
+        <f t="shared" si="48"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z118" s="74" t="e">
@@ -12813,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="60" t="str">
-        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
+        <f t="shared" si="41"/>
         <v>4009/4010</v>
       </c>
       <c r="L119" s="60" t="str">
@@ -12821,11 +12821,11 @@
         <v>BUTLER</v>
       </c>
       <c r="M119" s="12">
-        <f>I119-F119</f>
+        <f t="shared" si="42"/>
         <v>3.1400462969031651E-2</v>
       </c>
       <c r="N119" s="13">
-        <f>24*60*SUM($M119:$M119)</f>
+        <f t="shared" si="49"/>
         <v>45.216666675405577</v>
       </c>
       <c r="O119" s="13"/>
@@ -12833,27 +12833,27 @@
       <c r="Q119" s="61"/>
       <c r="R119" s="61"/>
       <c r="T119" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:44:34-0600',mode:absolute,to:'2016-05-25 18:33:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="73" t="str">
-        <f>IF(Y119&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V119" s="73">
-        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W119" s="73">
-        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X119" s="73">
-        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y119" s="73">
-        <f>ABS(X119-W119)</f>
+        <f t="shared" si="48"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z119" s="74" t="e">
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="60" t="str">
-        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
+        <f t="shared" si="41"/>
         <v>4027/4028</v>
       </c>
       <c r="L120" s="60" t="str">
@@ -12905,11 +12905,11 @@
         <v>STORY</v>
       </c>
       <c r="M120" s="12">
-        <f>I120-F120</f>
+        <f t="shared" si="42"/>
         <v>2.6018518517958E-2</v>
       </c>
       <c r="N120" s="13">
-        <f>24*60*SUM($M120:$M120)</f>
+        <f t="shared" si="49"/>
         <v>37.46666666585952</v>
       </c>
       <c r="O120" s="13"/>
@@ -12917,27 +12917,27 @@
       <c r="Q120" s="61"/>
       <c r="R120" s="61"/>
       <c r="T120" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:13:38-0600',mode:absolute,to:'2016-05-25 17:54:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="73" t="str">
-        <f>IF(Y120&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V120" s="73">
-        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W120" s="73">
-        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X120" s="73">
-        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y120" s="73">
-        <f>ABS(X120-W120)</f>
+        <f t="shared" si="48"/>
         <v>23.2864</v>
       </c>
       <c r="Z120" s="74" t="e">
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="60" t="str">
-        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
+        <f t="shared" si="41"/>
         <v>4027/4028</v>
       </c>
       <c r="L121" s="60" t="str">
@@ -12989,11 +12989,11 @@
         <v>STORY</v>
       </c>
       <c r="M121" s="12">
-        <f>I121-F121</f>
+        <f t="shared" si="42"/>
         <v>3.2893518517084885E-2</v>
       </c>
       <c r="N121" s="13">
-        <f>24*60*SUM($M121:$M121)</f>
+        <f t="shared" si="49"/>
         <v>47.366666664602235</v>
       </c>
       <c r="O121" s="13"/>
@@ -13001,27 +13001,27 @@
       <c r="Q121" s="61"/>
       <c r="R121" s="61"/>
       <c r="T121" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:02:29-0600',mode:absolute,to:'2016-05-25 18:53:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="73" t="str">
-        <f>IF(Y121&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V121" s="73">
-        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W121" s="73">
-        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.301100000000002</v>
       </c>
       <c r="X121" s="73">
-        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y121" s="73">
-        <f>ABS(X121-W121)</f>
+        <f t="shared" si="48"/>
         <v>23.286100000000001</v>
       </c>
       <c r="Z121" s="74" t="e">
@@ -13065,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="60" t="str">
-        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
+        <f t="shared" si="41"/>
         <v>4019/4020</v>
       </c>
       <c r="L122" s="60" t="str">
@@ -13073,11 +13073,11 @@
         <v>STEWART</v>
       </c>
       <c r="M122" s="12">
-        <f>I122-F122</f>
+        <f t="shared" si="42"/>
         <v>2.7071759257523809E-2</v>
       </c>
       <c r="N122" s="13">
-        <f>24*60*SUM($M122:$M122)</f>
+        <f t="shared" si="49"/>
         <v>38.983333330834284</v>
       </c>
       <c r="O122" s="13"/>
@@ -13085,27 +13085,27 @@
       <c r="Q122" s="61"/>
       <c r="R122" s="61"/>
       <c r="T122" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:24:20-0600',mode:absolute,to:'2016-05-25 18:06:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="73" t="str">
-        <f>IF(Y122&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V122" s="73">
-        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W122" s="73">
-        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X122" s="73">
-        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.334499999999998</v>
       </c>
       <c r="Y122" s="73">
-        <f>ABS(X122-W122)</f>
+        <f t="shared" si="48"/>
         <v>23.288799999999998</v>
       </c>
       <c r="Z122" s="74">
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="60" t="str">
-        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
+        <f t="shared" si="41"/>
         <v>4019/4020</v>
       </c>
       <c r="L123" s="60" t="str">
@@ -13157,11 +13157,11 @@
         <v>STEWART</v>
       </c>
       <c r="M123" s="12">
-        <f>I123-F123</f>
+        <f t="shared" si="42"/>
         <v>3.2974537039990537E-2</v>
       </c>
       <c r="N123" s="13">
-        <f>24*60*SUM($M123:$M123)</f>
+        <f t="shared" si="49"/>
         <v>47.483333337586373</v>
       </c>
       <c r="O123" s="13"/>
@@ -13169,27 +13169,27 @@
       <c r="Q123" s="61"/>
       <c r="R123" s="61"/>
       <c r="T123" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:18:45-0600',mode:absolute,to:'2016-05-25 19:10:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="73" t="str">
-        <f>IF(Y123&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V123" s="73">
-        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W123" s="73">
-        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.3019</v>
       </c>
       <c r="X123" s="73">
-        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y123" s="73">
-        <f>ABS(X123-W123)</f>
+        <f t="shared" si="48"/>
         <v>23.287399999999998</v>
       </c>
       <c r="Z123" s="74" t="e">
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="60" t="str">
-        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
+        <f t="shared" si="41"/>
         <v>4039/4040</v>
       </c>
       <c r="L124" s="60" t="str">
@@ -13241,11 +13241,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M124" s="12">
-        <f>I124-F124</f>
+        <f t="shared" si="42"/>
         <v>2.789351851970423E-2</v>
       </c>
       <c r="N124" s="13">
-        <f>24*60*SUM($M124:$M124)</f>
+        <f t="shared" si="49"/>
         <v>40.166666668374091</v>
       </c>
       <c r="O124" s="13"/>
@@ -13253,27 +13253,27 @@
       <c r="Q124" s="61"/>
       <c r="R124" s="61"/>
       <c r="T124" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:39:08-0600',mode:absolute,to:'2016-05-25 18:22:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="73" t="str">
-        <f>IF(Y124&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V124" s="73">
-        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W124" s="73">
-        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X124" s="73">
-        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y124" s="73">
-        <f>ABS(X124-W124)</f>
+        <f t="shared" si="48"/>
         <v>23.284200000000002</v>
       </c>
       <c r="Z124" s="74">
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="60" t="str">
-        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
+        <f t="shared" si="41"/>
         <v>4039/4040</v>
       </c>
       <c r="L125" s="60" t="str">
@@ -13325,11 +13325,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M125" s="12">
-        <f>I125-F125</f>
+        <f t="shared" si="42"/>
         <v>3.4409722225973383E-2</v>
       </c>
       <c r="N125" s="13">
-        <f>24*60*SUM($M125:$M125)</f>
+        <f t="shared" si="49"/>
         <v>49.550000005401671</v>
       </c>
       <c r="O125" s="13"/>
@@ -13337,27 +13337,27 @@
       <c r="Q125" s="61"/>
       <c r="R125" s="61"/>
       <c r="T125" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:27:45-0600',mode:absolute,to:'2016-05-25 19:21:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="73" t="str">
-        <f>IF(Y125&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V125" s="73">
-        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W125" s="73">
-        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.2972</v>
       </c>
       <c r="X125" s="73">
-        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>3.78E-2</v>
       </c>
       <c r="Y125" s="73">
-        <f>ABS(X125-W125)</f>
+        <f t="shared" si="48"/>
         <v>23.259399999999999</v>
       </c>
       <c r="Z125" s="74" t="e">
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="60" t="str">
-        <f>IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
+        <f t="shared" si="41"/>
         <v>4037/4038</v>
       </c>
       <c r="L126" s="60" t="str">
@@ -13409,11 +13409,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M126" s="12">
-        <f>I126-F126</f>
+        <f t="shared" si="42"/>
         <v>2.8749999997671694E-2</v>
       </c>
       <c r="N126" s="13">
-        <f>24*60*SUM($M126:$M126)</f>
+        <f t="shared" si="49"/>
         <v>41.399999996647239</v>
       </c>
       <c r="O126" s="13"/>
@@ -13421,27 +13421,27 @@
       <c r="Q126" s="61"/>
       <c r="R126" s="61"/>
       <c r="T126" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 17:54:51-0600',mode:absolute,to:'2016-05-25 18:40:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="73" t="str">
-        <f>IF(Y126&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V126" s="73">
-        <f>VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W126" s="73">
-        <f>RIGHT(D126,LEN(D126)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.53E-2</v>
       </c>
       <c r="X126" s="73">
-        <f>RIGHT(H126,LEN(H126)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.331600000000002</v>
       </c>
       <c r="Y126" s="73">
-        <f>ABS(X126-W126)</f>
+        <f t="shared" si="48"/>
         <v>23.286300000000001</v>
       </c>
       <c r="Z126" s="74" t="e">
@@ -13485,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="60" t="str">
-        <f>IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
+        <f t="shared" si="41"/>
         <v>4037/4038</v>
       </c>
       <c r="L127" s="60" t="str">
@@ -13493,11 +13493,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M127" s="12">
-        <f>I127-F127</f>
+        <f t="shared" si="42"/>
         <v>3.8541666668606922E-2</v>
       </c>
       <c r="N127" s="13">
-        <f>24*60*SUM($M127:$M127)</f>
+        <f t="shared" si="49"/>
         <v>55.500000002793968</v>
       </c>
       <c r="O127" s="13"/>
@@ -13505,27 +13505,27 @@
       <c r="Q127" s="61"/>
       <c r="R127" s="61"/>
       <c r="T127" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:42:34-0600',mode:absolute,to:'2016-05-25 19:41:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="73" t="str">
-        <f>IF(Y127&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V127" s="73">
-        <f>VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W127" s="73">
-        <f>RIGHT(D127,LEN(D127)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X127" s="73">
-        <f>RIGHT(H127,LEN(H127)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y127" s="73">
-        <f>ABS(X127-W127)</f>
+        <f t="shared" si="48"/>
         <v>23.281199999999998</v>
       </c>
       <c r="Z127" s="74">
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="60" t="str">
-        <f>IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
+        <f t="shared" si="41"/>
         <v>4029/4030</v>
       </c>
       <c r="L128" s="60" t="str">
@@ -13577,11 +13577,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M128" s="12">
-        <f>I128-F128</f>
+        <f t="shared" si="42"/>
         <v>2.8171296296932269E-2</v>
       </c>
       <c r="N128" s="13">
-        <f>24*60*SUM($M128:$M128)</f>
+        <f t="shared" si="49"/>
         <v>40.566666667582467</v>
       </c>
       <c r="O128" s="13"/>
@@ -13589,27 +13589,27 @@
       <c r="Q128" s="61"/>
       <c r="R128" s="61"/>
       <c r="T128" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E128-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I128+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B128&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:08:12-0600',mode:absolute,to:'2016-05-25 18:52:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="73" t="str">
-        <f>IF(Y128&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V128" s="73">
-        <f>VALUE(LEFT(A128,3))-VALUE(LEFT(A127,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W128" s="73">
-        <f>RIGHT(D128,LEN(D128)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X128" s="73">
-        <f>RIGHT(H128,LEN(H128)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y128" s="73">
-        <f>ABS(X128-W128)</f>
+        <f t="shared" si="48"/>
         <v>23.285700000000002</v>
       </c>
       <c r="Z128" s="74" t="e">
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="60" t="str">
-        <f>IF(ISEVEN(B129),(B129-1)&amp;"/"&amp;B129,B129&amp;"/"&amp;(B129+1))</f>
+        <f t="shared" si="41"/>
         <v>4029/4030</v>
       </c>
       <c r="L129" s="60" t="str">
@@ -13661,11 +13661,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M129" s="12">
-        <f>I129-F129</f>
+        <f t="shared" si="42"/>
         <v>3.0659722222480923E-2</v>
       </c>
       <c r="N129" s="13">
-        <f>24*60*SUM($M129:$M129)</f>
+        <f t="shared" si="49"/>
         <v>44.150000000372529</v>
       </c>
       <c r="O129" s="13"/>
@@ -13673,27 +13673,27 @@
       <c r="Q129" s="61"/>
       <c r="R129" s="61"/>
       <c r="T129" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E129-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I129+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B129&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 19:01:12-0600',mode:absolute,to:'2016-05-25 19:49:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="73" t="str">
-        <f>IF(Y129&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V129" s="73">
-        <f>VALUE(LEFT(A129,3))-VALUE(LEFT(A128,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W129" s="73">
-        <f>RIGHT(D129,LEN(D129)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X129" s="73">
-        <f>RIGHT(H129,LEN(H129)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y129" s="73">
-        <f>ABS(X129-W129)</f>
+        <f t="shared" si="48"/>
         <v>23.2818</v>
       </c>
       <c r="Z129" s="74" t="e">
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="60" t="str">
-        <f>IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
+        <f t="shared" si="41"/>
         <v>4031/4032</v>
       </c>
       <c r="L130" s="60" t="str">
@@ -13745,11 +13745,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M130" s="12">
-        <f>I130-F130</f>
+        <f t="shared" si="42"/>
         <v>2.6493055556784384E-2</v>
       </c>
       <c r="N130" s="13">
-        <f>24*60*SUM($M130:$M130)</f>
+        <f t="shared" si="49"/>
         <v>38.150000001769513</v>
       </c>
       <c r="O130" s="13"/>
@@ -13757,27 +13757,27 @@
       <c r="Q130" s="61"/>
       <c r="R130" s="61"/>
       <c r="T130" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E130-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I130+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B130&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:25:10-0600',mode:absolute,to:'2016-05-25 19:06:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="73" t="str">
-        <f>IF(Y130&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V130" s="73">
-        <f>VALUE(LEFT(A130,3))-VALUE(LEFT(A129,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W130" s="73">
-        <f>RIGHT(D130,LEN(D130)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X130" s="73">
-        <f>RIGHT(H130,LEN(H130)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.3291</v>
       </c>
       <c r="Y130" s="73">
-        <f>ABS(X130-W130)</f>
+        <f t="shared" si="48"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z130" s="74" t="e">
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="60" t="str">
-        <f>IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <f t="shared" si="41"/>
         <v>4031/4032</v>
       </c>
       <c r="L131" s="60" t="str">
@@ -13829,11 +13829,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M131" s="12">
-        <f>I131-F131</f>
+        <f t="shared" si="42"/>
         <v>2.8113425927585922E-2</v>
       </c>
       <c r="N131" s="13">
-        <f>24*60*SUM($M131:$M131)</f>
+        <f t="shared" si="49"/>
         <v>40.483333335723728</v>
       </c>
       <c r="O131" s="13"/>
@@ -13841,27 +13841,27 @@
       <c r="Q131" s="61"/>
       <c r="R131" s="61"/>
       <c r="T131" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 19:21:01-0600',mode:absolute,to:'2016-05-25 20:04:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="73" t="str">
-        <f>IF(Y131&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V131" s="73">
-        <f>VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W131" s="73">
-        <f>RIGHT(D131,LEN(D131)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.296700000000001</v>
       </c>
       <c r="X131" s="73">
-        <f>RIGHT(H131,LEN(H131)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y131" s="73">
-        <f>ABS(X131-W131)</f>
+        <f t="shared" si="48"/>
         <v>23.281300000000002</v>
       </c>
       <c r="Z131" s="74" t="e">
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="60" t="str">
-        <f>IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" si="41"/>
         <v>4027/4028</v>
       </c>
       <c r="L132" s="60" t="str">
@@ -13913,11 +13913,11 @@
         <v>STORY</v>
       </c>
       <c r="M132" s="12">
-        <f>I132-F132</f>
+        <f t="shared" si="42"/>
         <v>2.7372685188311152E-2</v>
       </c>
       <c r="N132" s="13">
-        <f>24*60*SUM($M132:$M132)</f>
+        <f t="shared" si="49"/>
         <v>39.416666671168059</v>
       </c>
       <c r="O132" s="13"/>
@@ -13925,27 +13925,27 @@
       <c r="Q132" s="61"/>
       <c r="R132" s="61"/>
       <c r="T132" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 18:56:08-0600',mode:absolute,to:'2016-05-25 19:38:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="73" t="str">
-        <f>IF(Y132&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V132" s="73">
-        <f>VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W132" s="73">
-        <f>RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X132" s="73">
-        <f>RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y132" s="73">
-        <f>ABS(X132-W132)</f>
+        <f t="shared" si="48"/>
         <v>23.280600000000003</v>
       </c>
       <c r="Z132" s="74">
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="60" t="str">
-        <f>IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
+        <f t="shared" si="41"/>
         <v>4027/4028</v>
       </c>
       <c r="L133" s="60" t="str">
@@ -13997,11 +13997,11 @@
         <v>STORY</v>
       </c>
       <c r="M133" s="12">
-        <f>I133-F133</f>
+        <f t="shared" si="42"/>
         <v>3.7685185183363501E-2</v>
       </c>
       <c r="N133" s="13">
-        <f>24*60*SUM($M133:$M133)</f>
+        <f t="shared" si="49"/>
         <v>54.266666664043441</v>
       </c>
       <c r="O133" s="13"/>
@@ -14009,27 +14009,27 @@
       <c r="Q133" s="61"/>
       <c r="R133" s="61"/>
       <c r="T133" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 19:46:06-0600',mode:absolute,to:'2016-05-25 20:43:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="73" t="str">
-        <f>IF(Y133&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V133" s="73">
-        <f>VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W133" s="73">
-        <f>RIGHT(D133,LEN(D133)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.300699999999999</v>
       </c>
       <c r="X133" s="73">
-        <f>RIGHT(H133,LEN(H133)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y133" s="73">
-        <f>ABS(X133-W133)</f>
+        <f t="shared" si="48"/>
         <v>23.285499999999999</v>
       </c>
       <c r="Z133" s="74" t="e">
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="60" t="str">
-        <f>IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
+        <f t="shared" si="41"/>
         <v>4039/4040</v>
       </c>
       <c r="L134" s="60" t="str">
@@ -14081,11 +14081,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M134" s="12">
-        <f>I134-F134</f>
+        <f t="shared" si="42"/>
         <v>3.2118055554747116E-2</v>
       </c>
       <c r="N134" s="13">
-        <f>24*60*SUM($M134:$M134)</f>
+        <f t="shared" si="49"/>
         <v>46.249999998835847</v>
       </c>
       <c r="O134" s="13"/>
@@ -14093,27 +14093,27 @@
       <c r="Q134" s="61"/>
       <c r="R134" s="61"/>
       <c r="T134" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 19:21:54-0600',mode:absolute,to:'2016-05-25 20:11:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="73" t="str">
-        <f>IF(Y134&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V134" s="73">
-        <f>VALUE(LEFT(A134,3))-VALUE(LEFT(A133,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W134" s="73">
-        <f>RIGHT(D134,LEN(D134)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="X134" s="73">
-        <f>RIGHT(H134,LEN(H134)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y134" s="73">
-        <f>ABS(X134-W134)</f>
+        <f t="shared" si="48"/>
         <v>23.257400000000001</v>
       </c>
       <c r="Z134" s="74">
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="60" t="str">
-        <f>IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
+        <f t="shared" si="41"/>
         <v>4039/4040</v>
       </c>
       <c r="L135" s="60" t="str">
@@ -14165,11 +14165,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M135" s="12">
-        <f>I135-F135</f>
+        <f t="shared" si="42"/>
         <v>3.4814814818673767E-2</v>
       </c>
       <c r="N135" s="13">
-        <f>24*60*SUM($M135:$M135)</f>
+        <f t="shared" si="49"/>
         <v>50.133333338890225</v>
       </c>
       <c r="O135" s="13"/>
@@ -14177,27 +14177,27 @@
       <c r="Q135" s="61"/>
       <c r="R135" s="61"/>
       <c r="T135" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 20:16:54-0600',mode:absolute,to:'2016-05-25 21:10:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="73" t="str">
-        <f>IF(Y135&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V135" s="73">
-        <f>VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W135" s="73">
-        <f>RIGHT(D135,LEN(D135)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.2959</v>
       </c>
       <c r="X135" s="73">
-        <f>RIGHT(H135,LEN(H135)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y135" s="73">
-        <f>ABS(X135-W135)</f>
+        <f t="shared" si="48"/>
         <v>23.279599999999999</v>
       </c>
       <c r="Z135" s="74">
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="60" t="str">
-        <f>IF(ISEVEN(B136),(B136-1)&amp;"/"&amp;B136,B136&amp;"/"&amp;(B136+1))</f>
+        <f t="shared" si="41"/>
         <v>4029/4030</v>
       </c>
       <c r="L136" s="60" t="str">
@@ -14249,11 +14249,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M136" s="12">
-        <f>I136-F136</f>
+        <f t="shared" si="42"/>
         <v>2.9837962967576459E-2</v>
       </c>
       <c r="N136" s="13">
-        <f>24*60*SUM($M136:$M136)</f>
+        <f t="shared" si="49"/>
         <v>42.966666673310101</v>
       </c>
       <c r="O136" s="13"/>
@@ -14261,27 +14261,27 @@
       <c r="Q136" s="61"/>
       <c r="R136" s="61"/>
       <c r="T136" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E136-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I136+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B136&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 19:51:25-0600',mode:absolute,to:'2016-05-25 20:37:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="73" t="str">
-        <f>IF(Y136&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V136" s="73">
-        <f>VALUE(LEFT(A136,3))-VALUE(LEFT(A135,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W136" s="73">
-        <f>RIGHT(D136,LEN(D136)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X136" s="73">
-        <f>RIGHT(H136,LEN(H136)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y136" s="73">
-        <f>ABS(X136-W136)</f>
+        <f t="shared" si="48"/>
         <v>23.282400000000003</v>
       </c>
       <c r="Z136" s="74" t="e">
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="60" t="str">
-        <f>IF(ISEVEN(B137),(B137-1)&amp;"/"&amp;B137,B137&amp;"/"&amp;(B137+1))</f>
+        <f t="shared" si="41"/>
         <v>4029/4030</v>
       </c>
       <c r="L137" s="60" t="str">
@@ -14333,11 +14333,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M137" s="12">
-        <f>I137-F137</f>
+        <f t="shared" si="42"/>
         <v>3.2476851847604848E-2</v>
       </c>
       <c r="N137" s="13">
-        <f>24*60*SUM($M137:$M137)</f>
+        <f t="shared" si="49"/>
         <v>46.766666660550982</v>
       </c>
       <c r="O137" s="13"/>
@@ -14345,27 +14345,27 @@
       <c r="Q137" s="61"/>
       <c r="R137" s="61"/>
       <c r="T137" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E137-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I137+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B137&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 20:46:39-0600',mode:absolute,to:'2016-05-25 21:38:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="73" t="str">
-        <f>IF(Y137&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V137" s="73">
-        <f>VALUE(LEFT(A137,3))-VALUE(LEFT(A136,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W137" s="73">
-        <f>RIGHT(D137,LEN(D137)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.296299999999999</v>
       </c>
       <c r="X137" s="73">
-        <f>RIGHT(H137,LEN(H137)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="Y137" s="73">
-        <f>ABS(X137-W137)</f>
+        <f t="shared" si="48"/>
         <v>23.2789</v>
       </c>
       <c r="Z137" s="74" t="e">
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="60" t="str">
-        <f>IF(ISEVEN(B138),(B138-1)&amp;"/"&amp;B138,B138&amp;"/"&amp;(B138+1))</f>
+        <f t="shared" si="41"/>
         <v>4031/4032</v>
       </c>
       <c r="L138" s="60" t="str">
@@ -14417,11 +14417,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M138" s="12">
-        <f>I138-F138</f>
+        <f t="shared" si="42"/>
         <v>3.1076388884685002E-2</v>
       </c>
       <c r="N138" s="13">
-        <f>24*60*SUM($M138:$M138)</f>
+        <f t="shared" si="49"/>
         <v>44.749999993946403</v>
       </c>
       <c r="O138" s="13"/>
@@ -14429,27 +14429,27 @@
       <c r="Q138" s="61"/>
       <c r="R138" s="61"/>
       <c r="T138" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E138-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I138+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B138&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 20:20:40-0600',mode:absolute,to:'2016-05-25 21:08:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="73" t="str">
-        <f>IF(Y138&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V138" s="73">
-        <f>VALUE(LEFT(A138,3))-VALUE(LEFT(A137,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W138" s="73">
-        <f>RIGHT(D138,LEN(D138)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="X138" s="73">
-        <f>RIGHT(H138,LEN(H138)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.327999999999999</v>
       </c>
       <c r="Y138" s="73">
-        <f>ABS(X138-W138)</f>
+        <f t="shared" si="48"/>
         <v>23.280200000000001</v>
       </c>
       <c r="Z138" s="74" t="e">
@@ -14493,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="60" t="str">
-        <f>IF(ISEVEN(B139),(B139-1)&amp;"/"&amp;B139,B139&amp;"/"&amp;(B139+1))</f>
+        <f t="shared" si="41"/>
         <v>4031/4032</v>
       </c>
       <c r="L139" s="60" t="str">
@@ -14501,11 +14501,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M139" s="12">
-        <f>I139-F139</f>
+        <f t="shared" si="42"/>
         <v>3.6712962966703344E-2</v>
       </c>
       <c r="N139" s="13">
-        <f>24*60*SUM($M139:$M139)</f>
+        <f t="shared" si="49"/>
         <v>52.866666672052816</v>
       </c>
       <c r="O139" s="13"/>
@@ -14513,27 +14513,27 @@
       <c r="Q139" s="61"/>
       <c r="R139" s="61"/>
       <c r="T139" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E139-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I139+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B139&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 21:15:05-0600',mode:absolute,to:'2016-05-25 22:11:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="73" t="str">
-        <f>IF(Y139&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V139" s="73">
-        <f>VALUE(LEFT(A139,3))-VALUE(LEFT(A138,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W139" s="73">
-        <f>RIGHT(D139,LEN(D139)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>23.2959</v>
       </c>
       <c r="X139" s="73">
-        <f>RIGHT(H139,LEN(H139)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y139" s="73">
-        <f>ABS(X139-W139)</f>
+        <f t="shared" si="48"/>
         <v>23.280899999999999</v>
       </c>
       <c r="Z139" s="74" t="e">
@@ -14577,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="60" t="str">
-        <f>IF(ISEVEN(B140),(B140-1)&amp;"/"&amp;B140,B140&amp;"/"&amp;(B140+1))</f>
+        <f t="shared" si="41"/>
         <v>4027/4028</v>
       </c>
       <c r="L140" s="60" t="str">
@@ -14585,11 +14585,11 @@
         <v>STORY</v>
       </c>
       <c r="M140" s="12">
-        <f>I140-F140</f>
+        <f t="shared" si="42"/>
         <v>3.25578703705105E-2</v>
       </c>
       <c r="N140" s="13">
-        <f>24*60*SUM($M140:$M140)</f>
+        <f t="shared" si="49"/>
         <v>46.88333333353512</v>
       </c>
       <c r="O140" s="13"/>
@@ -14597,27 +14597,27 @@
       <c r="Q140" s="61"/>
       <c r="R140" s="61"/>
       <c r="T140" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="43"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 20:53:59-0600',mode:absolute,to:'2016-05-25 21:44:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="73" t="str">
-        <f>IF(Y140&lt;23,"Y","N")</f>
+        <f t="shared" si="44"/>
         <v>N</v>
       </c>
       <c r="V140" s="73">
-        <f>VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W140" s="73">
-        <f>RIGHT(D140,LEN(D140)-4)/10000</f>
+        <f t="shared" si="46"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X140" s="73">
-        <f>RIGHT(H140,LEN(H140)-4)/10000</f>
+        <f t="shared" si="47"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y140" s="73">
-        <f>ABS(X140-W140)</f>
+        <f t="shared" si="48"/>
         <v>23.284300000000002</v>
       </c>
       <c r="Z140" s="74" t="e">
@@ -14661,7 +14661,7 @@
         <v>5</v>
       </c>
       <c r="K141" s="60" t="str">
-        <f>IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
+        <f t="shared" ref="K141:K148" si="50">IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
         <v>4027/4028</v>
       </c>
       <c r="L141" s="60" t="str">
@@ -14669,11 +14669,11 @@
         <v>STORY</v>
       </c>
       <c r="M141" s="12">
-        <f>I141-F141</f>
+        <f t="shared" ref="M141:M148" si="51">I141-F141</f>
         <v>3.2233796300715767E-2</v>
       </c>
       <c r="N141" s="13">
-        <f>24*60*SUM($M141:$M141)</f>
+        <f t="shared" si="49"/>
         <v>46.416666673030704</v>
       </c>
       <c r="O141" s="13"/>
@@ -14681,27 +14681,27 @@
       <c r="Q141" s="61"/>
       <c r="R141" s="61"/>
       <c r="T141" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T141:T148" si="52">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 21:49:46-0600',mode:absolute,to:'2016-05-25 22:39:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="73" t="str">
-        <f>IF(Y141&lt;23,"Y","N")</f>
+        <f t="shared" ref="U141:U148" si="53">IF(Y141&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V141" s="73">
-        <f>VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
+        <f t="shared" ref="V141:V148" si="54">VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
         <v>1</v>
       </c>
       <c r="W141" s="73">
-        <f>RIGHT(D141,LEN(D141)-4)/10000</f>
+        <f t="shared" ref="W141:W148" si="55">RIGHT(D141,LEN(D141)-4)/10000</f>
         <v>23.299600000000002</v>
       </c>
       <c r="X141" s="73">
-        <f>RIGHT(H141,LEN(H141)-4)/10000</f>
+        <f t="shared" ref="X141:X148" si="56">RIGHT(H141,LEN(H141)-4)/10000</f>
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="Y141" s="73">
-        <f>ABS(X141-W141)</f>
+        <f t="shared" ref="Y141:Y172" si="57">ABS(X141-W141)</f>
         <v>23.2713</v>
       </c>
       <c r="Z141" s="74">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="60" t="str">
-        <f>IF(ISEVEN(B142),(B142-1)&amp;"/"&amp;B142,B142&amp;"/"&amp;(B142+1))</f>
+        <f t="shared" si="50"/>
         <v>4039/4040</v>
       </c>
       <c r="L142" s="60" t="str">
@@ -14753,11 +14753,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M142" s="12">
-        <f>I142-F142</f>
+        <f t="shared" si="51"/>
         <v>3.6018518519995268E-2</v>
       </c>
       <c r="N142" s="13">
-        <f>24*60*SUM($M142:$M142)</f>
+        <f t="shared" si="49"/>
         <v>51.866666668793187</v>
       </c>
       <c r="O142" s="13"/>
@@ -14765,27 +14765,27 @@
       <c r="Q142" s="61"/>
       <c r="R142" s="61"/>
       <c r="T142" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E142-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I142+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B142&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 21:14:01-0600',mode:absolute,to:'2016-05-25 22:09:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="73" t="str">
-        <f>IF(Y142&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>N</v>
       </c>
       <c r="V142" s="73">
-        <f>VALUE(LEFT(A142,3))-VALUE(LEFT(A141,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W142" s="73">
-        <f>RIGHT(D142,LEN(D142)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X142" s="73">
-        <f>RIGHT(H142,LEN(H142)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>23.3278</v>
       </c>
       <c r="Y142" s="73">
-        <f>ABS(X142-W142)</f>
+        <f t="shared" si="57"/>
         <v>23.281099999999999</v>
       </c>
       <c r="Z142" s="74" t="e">
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="60" t="str">
-        <f>IF(ISEVEN(B143),(B143-1)&amp;"/"&amp;B143,B143&amp;"/"&amp;(B143+1))</f>
+        <f t="shared" si="50"/>
         <v>4039/4040</v>
       </c>
       <c r="L143" s="60" t="str">
@@ -14837,11 +14837,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M143" s="12">
-        <f>I143-F143</f>
+        <f t="shared" si="51"/>
         <v>3.474537036527181E-2</v>
       </c>
       <c r="N143" s="13">
-        <f>24*60*SUM($M143:$M143)</f>
+        <f t="shared" si="49"/>
         <v>50.033333325991407</v>
       </c>
       <c r="O143" s="13"/>
@@ -14849,27 +14849,27 @@
       <c r="Q143" s="61"/>
       <c r="R143" s="61"/>
       <c r="T143" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E143-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I143+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B143&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 22:15:58-0600',mode:absolute,to:'2016-05-25 23:09:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="73" t="str">
-        <f>IF(Y143&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>N</v>
       </c>
       <c r="V143" s="73">
-        <f>VALUE(LEFT(A143,3))-VALUE(LEFT(A142,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W143" s="73">
-        <f>RIGHT(D143,LEN(D143)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>23.295300000000001</v>
       </c>
       <c r="X143" s="73">
-        <f>RIGHT(H143,LEN(H143)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="Y143" s="73">
-        <f>ABS(X143-W143)</f>
+        <f t="shared" si="57"/>
         <v>23.277900000000002</v>
       </c>
       <c r="Z143" s="74" t="e">
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="60" t="str">
-        <f>IF(ISEVEN(B144),(B144-1)&amp;"/"&amp;B144,B144&amp;"/"&amp;(B144+1))</f>
+        <f t="shared" si="50"/>
         <v>4029/4030</v>
       </c>
       <c r="L144" s="60" t="str">
@@ -14921,11 +14921,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M144" s="12">
-        <f>I144-F144</f>
+        <f t="shared" si="51"/>
         <v>2.8055555550963618E-2</v>
       </c>
       <c r="N144" s="13">
-        <f>24*60*SUM($M144:$M144)</f>
+        <f t="shared" si="49"/>
         <v>40.39999999338761</v>
       </c>
       <c r="O144" s="13"/>
@@ -14933,27 +14933,27 @@
       <c r="Q144" s="61"/>
       <c r="R144" s="61"/>
       <c r="T144" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E144-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I144+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B144&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 21:52:46-0600',mode:absolute,to:'2016-05-25 22:36:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="73" t="str">
-        <f>IF(Y144&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>N</v>
       </c>
       <c r="V144" s="73">
-        <f>VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W144" s="73">
-        <f>RIGHT(D144,LEN(D144)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X144" s="73">
-        <f>RIGHT(H144,LEN(H144)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y144" s="73">
-        <f>ABS(X144-W144)</f>
+        <f t="shared" si="57"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z144" s="74" t="e">
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="60" t="str">
-        <f>IF(ISEVEN(B145),(B145-1)&amp;"/"&amp;B145,B145&amp;"/"&amp;(B145+1))</f>
+        <f t="shared" si="50"/>
         <v>4029/4030</v>
       </c>
       <c r="L145" s="60" t="str">
@@ -15005,11 +15005,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M145" s="12">
-        <f>I145-F145</f>
+        <f t="shared" si="51"/>
         <v>3.2430555562314112E-2</v>
       </c>
       <c r="N145" s="13">
-        <f>24*60*SUM($M145:$M145)</f>
+        <f t="shared" si="49"/>
         <v>46.700000009732321</v>
       </c>
       <c r="O145" s="13"/>
@@ -15017,27 +15017,27 @@
       <c r="Q145" s="61"/>
       <c r="R145" s="61"/>
       <c r="T145" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E145-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I145+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B145&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 22:44:22-0600',mode:absolute,to:'2016-05-25 23:34:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="73" t="str">
-        <f>IF(Y145&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>N</v>
       </c>
       <c r="V145" s="73">
-        <f>VALUE(LEFT(A145,3))-VALUE(LEFT(A144,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W145" s="73">
-        <f>RIGHT(D145,LEN(D145)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X145" s="73">
-        <f>RIGHT(H145,LEN(H145)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y145" s="73">
-        <f>ABS(X145-W145)</f>
+        <f t="shared" si="57"/>
         <v>23.281199999999998</v>
       </c>
       <c r="Z145" s="74" t="e">
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="60" t="str">
-        <f>IF(ISEVEN(B146),(B146-1)&amp;"/"&amp;B146,B146&amp;"/"&amp;(B146+1))</f>
+        <f t="shared" si="50"/>
         <v>4031/4032</v>
       </c>
       <c r="L146" s="60" t="str">
@@ -15089,11 +15089,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M146" s="12">
-        <f>I146-F146</f>
+        <f t="shared" si="51"/>
         <v>2.9131944444088731E-2</v>
       </c>
       <c r="N146" s="13">
-        <f>24*60*SUM($M146:$M146)</f>
+        <f t="shared" si="49"/>
         <v>41.949999999487773</v>
       </c>
       <c r="O146" s="13"/>
@@ -15101,27 +15101,27 @@
       <c r="Q146" s="61"/>
       <c r="R146" s="61"/>
       <c r="T146" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E146-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I146+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B146&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 22:22:42-0600',mode:absolute,to:'2016-05-25 23:07:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U146" s="73" t="str">
-        <f>IF(Y146&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>N</v>
       </c>
       <c r="V146" s="73">
-        <f>VALUE(LEFT(A146,3))-VALUE(LEFT(A145,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W146" s="73">
-        <f>RIGHT(D146,LEN(D146)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X146" s="73">
-        <f>RIGHT(H146,LEN(H146)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>23.3263</v>
       </c>
       <c r="Y146" s="73">
-        <f>ABS(X146-W146)</f>
+        <f t="shared" si="57"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z146" s="74" t="e">
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="60" t="str">
-        <f>IF(ISEVEN(B147),(B147-1)&amp;"/"&amp;B147,B147&amp;"/"&amp;(B147+1))</f>
+        <f t="shared" si="50"/>
         <v>4031/4032</v>
       </c>
       <c r="L147" s="60" t="str">
@@ -15173,11 +15173,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M147" s="12">
-        <f>I147-F147</f>
+        <f t="shared" si="51"/>
         <v>3.3287037033005618E-2</v>
       </c>
       <c r="N147" s="13">
-        <f>24*60*SUM($M147:$M147)</f>
+        <f t="shared" si="49"/>
         <v>47.933333327528089</v>
       </c>
       <c r="O147" s="13"/>
@@ -15185,27 +15185,27 @@
       <c r="Q147" s="61"/>
       <c r="R147" s="61"/>
       <c r="T147" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E147-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I147+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B147&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 23:14:58-0600',mode:absolute,to:'2016-05-26 00:06:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U147" s="73" t="str">
-        <f>IF(Y147&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>N</v>
       </c>
       <c r="V147" s="73">
-        <f>VALUE(LEFT(A147,3))-VALUE(LEFT(A146,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W147" s="73">
-        <f>RIGHT(D147,LEN(D147)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>23.2971</v>
       </c>
       <c r="X147" s="73">
-        <f>RIGHT(H147,LEN(H147)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y147" s="73">
-        <f>ABS(X147-W147)</f>
+        <f t="shared" si="57"/>
         <v>23.281700000000001</v>
       </c>
       <c r="Z147" s="74" t="e">
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="60" t="str">
-        <f>IF(ISEVEN(B148),(B148-1)&amp;"/"&amp;B148,B148&amp;"/"&amp;(B148+1))</f>
+        <f t="shared" si="50"/>
         <v>4027/4028</v>
       </c>
       <c r="L148" s="60" t="str">
@@ -15257,7 +15257,7 @@
         <v>STORY</v>
       </c>
       <c r="M148" s="12">
-        <f>I148-F148</f>
+        <f t="shared" si="51"/>
         <v>6.5046296294895001E-3</v>
       </c>
       <c r="N148" s="13"/>
@@ -15273,27 +15273,27 @@
         <v>602</v>
       </c>
       <c r="T148" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E148-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I148+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B148&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="52"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 23:08:25-0600',mode:absolute,to:'2016-05-25 23:21:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U148" s="73" t="str">
-        <f>IF(Y148&lt;23,"Y","N")</f>
+        <f t="shared" si="53"/>
         <v>Y</v>
       </c>
       <c r="V148" s="73">
-        <f>VALUE(LEFT(A148,3))-VALUE(LEFT(A147,3))</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W148" s="73">
-        <f>RIGHT(D148,LEN(D148)-4)/10000</f>
+        <f t="shared" si="55"/>
         <v>1.9118999999999999</v>
       </c>
       <c r="X148" s="73">
-        <f>RIGHT(H148,LEN(H148)-4)/10000</f>
+        <f t="shared" si="56"/>
         <v>3.7191000000000001</v>
       </c>
       <c r="Y148" s="73">
-        <f>ABS(X148-W148)</f>
+        <f t="shared" si="57"/>
         <v>1.8072000000000001</v>
       </c>
       <c r="Z148" s="74" t="e">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="60" t="str">
-        <f t="shared" ref="K133:K156" si="12">IF(ISEVEN(B149),(B149-1)&amp;"/"&amp;B149,B149&amp;"/"&amp;(B149+1))</f>
+        <f t="shared" ref="K149:K156" si="58">IF(ISEVEN(B149),(B149-1)&amp;"/"&amp;B149,B149&amp;"/"&amp;(B149+1))</f>
         <v>4027/4028</v>
       </c>
       <c r="L149" s="60" t="str">
@@ -15345,7 +15345,7 @@
         <v>STORY</v>
       </c>
       <c r="M149" s="12">
-        <f t="shared" ref="M133:M156" si="13">I149-F149</f>
+        <f t="shared" ref="M149:M156" si="59">I149-F149</f>
         <v>1.9166666665114462E-2</v>
       </c>
       <c r="N149" s="13"/>
@@ -15354,27 +15354,27 @@
       <c r="Q149" s="61"/>
       <c r="R149" s="61"/>
       <c r="T149" s="73" t="str">
-        <f t="shared" ref="T149:T156" si="14">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E149-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I149+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B149&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T149:T156" si="60">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E149-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I149+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B149&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 22:50:01-0600',mode:absolute,to:'2016-05-25 23:21:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U149" s="73" t="str">
-        <f t="shared" ref="U149:U156" si="15">IF(Y149&lt;23,"Y","N")</f>
+        <f t="shared" ref="U149:U156" si="61">IF(Y149&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V149" s="73">
-        <f t="shared" ref="V149:V156" si="16">VALUE(LEFT(A149,3))-VALUE(LEFT(A148,3))</f>
+        <f t="shared" ref="V149:V156" si="62">VALUE(LEFT(A149,3))-VALUE(LEFT(A148,3))</f>
         <v>0</v>
       </c>
       <c r="W149" s="73">
-        <f t="shared" ref="W149:W156" si="17">RIGHT(D149,LEN(D149)-4)/10000</f>
+        <f t="shared" ref="W149:W156" si="63">RIGHT(D149,LEN(D149)-4)/10000</f>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="X149" s="73">
-        <f t="shared" ref="X149:X156" si="18">RIGHT(H149,LEN(H149)-4)/10000</f>
+        <f t="shared" ref="X149:X156" si="64">RIGHT(H149,LEN(H149)-4)/10000</f>
         <v>3.7191000000000001</v>
       </c>
       <c r="Y149" s="73">
-        <f t="shared" ref="Y149:Y156" si="19">ABS(X149-W149)</f>
+        <f t="shared" ref="Y149:Y156" si="65">ABS(X149-W149)</f>
         <v>3.6600999999999999</v>
       </c>
       <c r="Z149" s="74" t="e">
@@ -15418,7 +15418,7 @@
         <v>3</v>
       </c>
       <c r="K150" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4027/4028</v>
       </c>
       <c r="L150" s="60" t="str">
@@ -15426,11 +15426,11 @@
         <v>STORY</v>
       </c>
       <c r="M150" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.4490740741603076E-2</v>
       </c>
       <c r="N150" s="13">
-        <f t="shared" ref="N95:P155" si="20">24*60*SUM($M150:$M150)</f>
+        <f t="shared" ref="N150:N155" si="66">24*60*SUM($M150:$M150)</f>
         <v>49.66666666790843</v>
       </c>
       <c r="O150" s="13"/>
@@ -15438,27 +15438,27 @@
       <c r="Q150" s="61"/>
       <c r="R150" s="61"/>
       <c r="T150" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 23:49:42-0600',mode:absolute,to:'2016-05-26 00:44:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U150" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V150" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W150" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X150" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y150" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.282899999999998</v>
       </c>
       <c r="Z150" s="74">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4039/4040</v>
       </c>
       <c r="L151" s="60" t="str">
@@ -15510,11 +15510,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M151" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.4641203703358769E-2</v>
       </c>
       <c r="N151" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="66"/>
         <v>49.883333332836628</v>
       </c>
       <c r="O151" s="13"/>
@@ -15522,27 +15522,27 @@
       <c r="Q151" s="61"/>
       <c r="R151" s="61"/>
       <c r="T151" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 23:15:33-0600',mode:absolute,to:'2016-05-26 00:08:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U151" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V151" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W151" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X151" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>23.3293</v>
       </c>
       <c r="Y151" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z151" s="74" t="e">
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="K152" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4039/4040</v>
       </c>
       <c r="L152" s="60" t="str">
@@ -15594,11 +15594,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M152" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.8842592592118308E-2</v>
       </c>
       <c r="N152" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="66"/>
         <v>55.933333332650363</v>
       </c>
       <c r="O152" s="13"/>
@@ -15606,27 +15606,27 @@
       <c r="Q152" s="61"/>
       <c r="R152" s="61"/>
       <c r="T152" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26 00:15:14-0600',mode:absolute,to:'2016-05-26 01:14:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U152" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V152" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W152" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>23.296900000000001</v>
       </c>
       <c r="X152" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y152" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.281500000000001</v>
       </c>
       <c r="Z152" s="74">
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4029/4030</v>
       </c>
       <c r="L153" s="60" t="str">
@@ -15678,11 +15678,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M153" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.4444444449036382E-2</v>
       </c>
       <c r="N153" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="66"/>
         <v>49.60000000661239</v>
       </c>
       <c r="O153" s="13"/>
@@ -15690,27 +15690,27 @@
       <c r="Q153" s="61"/>
       <c r="R153" s="61"/>
       <c r="T153" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-25 23:45:37-0600',mode:absolute,to:'2016-05-26 00:38:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U153" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V153" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W153" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X153" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>23.3291</v>
       </c>
       <c r="Y153" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.282</v>
       </c>
       <c r="Z153" s="74" t="e">
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4029/4030</v>
       </c>
       <c r="L154" s="60" t="str">
@@ -15762,11 +15762,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M154" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.2245370370219462E-2</v>
       </c>
       <c r="N154" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="66"/>
         <v>46.433333333116025</v>
       </c>
       <c r="O154" s="13"/>
@@ -15774,27 +15774,27 @@
       <c r="Q154" s="61"/>
       <c r="R154" s="61"/>
       <c r="T154" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26 00:45:26-0600',mode:absolute,to:'2016-05-26 01:35:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U154" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V154" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W154" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>23.296500000000002</v>
       </c>
       <c r="X154" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="Y154" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.277800000000003</v>
       </c>
       <c r="Z154" s="74" t="e">
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4031/4032</v>
       </c>
       <c r="L155" s="60" t="str">
@@ -15846,11 +15846,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M155" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.4155092595028691E-2</v>
       </c>
       <c r="N155" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="66"/>
         <v>49.183333336841315</v>
       </c>
       <c r="O155" s="13"/>
@@ -15858,27 +15858,27 @@
       <c r="Q155" s="61"/>
       <c r="R155" s="61"/>
       <c r="T155" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26 00:24:02-0600',mode:absolute,to:'2016-05-26 01:16:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U155" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V155" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W155" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>4.82E-2</v>
       </c>
       <c r="X155" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>23.328199999999999</v>
       </c>
       <c r="Y155" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.279999999999998</v>
       </c>
       <c r="Z155" s="74" t="e">
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="58"/>
         <v>4031/4032</v>
       </c>
       <c r="L156" s="60" t="str">
@@ -15930,11 +15930,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M156" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>3.1388888884976041E-2</v>
       </c>
       <c r="N156" s="13">
-        <f t="shared" ref="N156" si="21">24*60*SUM($M156:$M156)</f>
+        <f t="shared" ref="N156" si="67">24*60*SUM($M156:$M156)</f>
         <v>45.199999994365498</v>
       </c>
       <c r="O156" s="13"/>
@@ -15942,27 +15942,27 @@
       <c r="Q156" s="61"/>
       <c r="R156" s="61"/>
       <c r="T156" s="73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="60"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26 01:17:20-0600',mode:absolute,to:'2016-05-26 02:05:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U156" s="73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="61"/>
         <v>N</v>
       </c>
       <c r="V156" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="W156" s="73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="63"/>
         <v>23.296700000000001</v>
       </c>
       <c r="X156" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y156" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>23.28</v>
       </c>
       <c r="Z156" s="74" t="e">
